--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41796.10100007788</v>
+        <v>33239.3653857535</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11265290.1929192</v>
+        <v>11265290.19291919</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4077443.338949127</v>
+        <v>4077443.338949126</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.6530000821519226</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7413715737419722</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6530000821519291</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.6530000821519227</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7413715737419722</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6530000821519291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7413715737419722</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7413715737419722</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.6530000821519227</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6530000821519287</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7413715737419722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>8.979937655612986</v>
       </c>
       <c r="T5" t="n">
-        <v>7.909529087063915</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>7.909529087063913</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,20 +974,20 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>8.979937655612986</v>
       </c>
-      <c r="C6" t="n">
+      <c r="F6" t="n">
         <v>8.979937655612986</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>7.909529087063915</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>7.909529087063915</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7.909529087063913</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>8.979937655612986</v>
       </c>
       <c r="W7" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>7.909529087063913</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="V8" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.04668504368032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.04668504368032</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="H9" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.04668504368032</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="V10" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="W10" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="X10" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.458279867845</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>191.255994400369</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>191.255994400369</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>191.255994400369</v>
+        <v>168.458279867845</v>
       </c>
     </row>
     <row r="12">
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>9.935792369829066</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>71.60506467971084</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>158.6883976718495</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="W12" t="n">
         <v>191.255994400369</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>50.78670253659674</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>80.50458293305023</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>409.0544494114617</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>153.1738385118546</v>
       </c>
       <c r="H14" t="n">
-        <v>278.6214421576782</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>67.12561745208828</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.7626449729264</v>
       </c>
       <c r="U14" t="n">
-        <v>255.644280098968</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>306.8508280916859</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
-        <v>64.88354632722795</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
         <v>103.6549143897921</v>
@@ -1700,7 +1700,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.26331022692287</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>64.72404245363786</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>137.0353468417915</v>
       </c>
       <c r="U15" t="n">
-        <v>182.8645980776091</v>
+        <v>117.4073177316831</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>106.6346297457236</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>126.6814973516703</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>136.0231099195664</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>156.0159357421807</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>92.99947429093767</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>32.05954258077677</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T18" t="n">
         <v>136.7309641056443</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>64.45430662030959</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>111.3405674912214</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
         <v>277.3402845023203</v>
@@ -2064,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>51.39697353434651</v>
       </c>
       <c r="G20" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>32.9373415789813</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>111.230886484533</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>86.00981119713786</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>295.5745869696203</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>238.8851309424931</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2335,7 +2335,7 @@
         <v>398.012519220714</v>
       </c>
       <c r="H23" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>31.00067477565595</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T25" t="n">
         <v>236.5300678317505</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>127.5524088225805</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>83.12450490415117</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2608,22 +2608,22 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>72.02957932522844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>159.5421019621314</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2727,7 +2727,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>133.2527378018481</v>
@@ -2769,13 +2769,13 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>85.03427820342836</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>83.12450490415117</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>398.012519220714</v>
@@ -2857,10 +2857,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>96.39464605271478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>25.92264701839012</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>133.2527378018481</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5190049372437429</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>150.5856664684936</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U31" t="n">
-        <v>49.46046624596702</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>271.5073585269046</v>
@@ -3088,16 +3088,16 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1464925342692709</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.1973777170869</v>
       </c>
     </row>
     <row r="33">
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.676071163393423</v>
       </c>
       <c r="H34" t="n">
         <v>133.2527378018481</v>
       </c>
       <c r="I34" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T34" t="n">
-        <v>175.842238568377</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3267416342995</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3271,7 +3271,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
-        <v>202.6625929150834</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T35" t="n">
         <v>208.7218148893222</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>254.8206484053511</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>37.36323189729553</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3444,7 +3444,7 @@
         <v>133.2527378018481</v>
       </c>
       <c r="I37" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
-        <v>49.46046624596612</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3508,10 +3508,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>304.1417062449311</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>242.6579580155942</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3678,10 +3678,10 @@
         <v>163.5702563680571</v>
       </c>
       <c r="H40" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T40" t="n">
         <v>236.5300678317505</v>
@@ -3723,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>171.1349746363875</v>
       </c>
       <c r="X40" t="n">
-        <v>198.9504655635191</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>92.2744697223611</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>28.64968607284332</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>33.97287442652151</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>177.4064426279829</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
-        <v>162.2750583336569</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>144.4502228096923</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,10 +4140,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4152,10 +4152,10 @@
         <v>163.5702563680571</v>
       </c>
       <c r="H46" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>67.97209018366931</v>
+        <v>63.57721863585039</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5190049372437429</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>150.5856664684936</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U46" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V46" t="n">
-        <v>51.0280773297188</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7932675839039102</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7932675839039102</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7932675839039102</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="N2" t="n">
-        <v>1.527225441908463</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="O2" t="n">
-        <v>1.527225441908463</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="P2" t="n">
-        <v>1.527225441908463</v>
+        <v>2.231528436963315</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.231528436963336</v>
+        <v>2.231528436963315</v>
       </c>
       <c r="R2" t="n">
-        <v>2.965486294967889</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="S2" t="n">
-        <v>2.216626119470947</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="T2" t="n">
-        <v>1.467765943974006</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8081699013962994</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8081699013962994</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8081699013962994</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8081699013962994</v>
+        <v>1.557030076893226</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8081699013962994</v>
+        <v>1.557030076893226</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7932675839039102</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="M3" t="n">
-        <v>1.497570578958784</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="N3" t="n">
-        <v>2.231528436963336</v>
+        <v>2.231528436963315</v>
       </c>
       <c r="O3" t="n">
-        <v>2.965486294967889</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="P3" t="n">
-        <v>2.965486294967889</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.965486294967889</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="R3" t="n">
-        <v>2.965486294967889</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="S3" t="n">
-        <v>2.965486294967889</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="T3" t="n">
-        <v>2.965486294967889</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="U3" t="n">
-        <v>2.965486294967889</v>
+        <v>1.467765943973991</v>
       </c>
       <c r="V3" t="n">
-        <v>2.216626119470947</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="W3" t="n">
-        <v>1.467765943974006</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="X3" t="n">
-        <v>0.718905768477064</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8081699013962994</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05930972589935778</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05930972589935778</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7932675839039102</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="M4" t="n">
-        <v>1.527225441908463</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="N4" t="n">
-        <v>2.261183299913015</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="O4" t="n">
-        <v>2.965486294967889</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="P4" t="n">
-        <v>2.965486294967889</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.965486294967889</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="R4" t="n">
-        <v>2.305890252390183</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="S4" t="n">
-        <v>2.305890252390183</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="T4" t="n">
-        <v>2.305890252390183</v>
+        <v>1.467765943973991</v>
       </c>
       <c r="U4" t="n">
-        <v>2.305890252390183</v>
+        <v>1.467765943973991</v>
       </c>
       <c r="V4" t="n">
-        <v>2.305890252390183</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="W4" t="n">
-        <v>2.305890252390183</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="X4" t="n">
-        <v>2.305890252390183</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.557030076893241</v>
+        <v>0.718905768477057</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.85968320560659</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="C5" t="n">
-        <v>18.85968320560659</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="D5" t="n">
-        <v>18.85968320560659</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="E5" t="n">
-        <v>18.85968320560659</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="F5" t="n">
-        <v>9.789039109027813</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="G5" t="n">
         <v>0.7183950124490389</v>
@@ -4567,28 +4567,28 @@
         <v>0.7183950124490389</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.326601820302672</v>
       </c>
       <c r="K5" t="n">
-        <v>9.608533291505895</v>
+        <v>1.326601820302672</v>
       </c>
       <c r="L5" t="n">
-        <v>12.79111505834535</v>
+        <v>3.900976779288493</v>
       </c>
       <c r="M5" t="n">
+        <v>11.91174853477717</v>
+      </c>
+      <c r="N5" t="n">
         <v>20.80188681383403</v>
       </c>
-      <c r="N5" t="n">
-        <v>29.69202509289089</v>
-      </c>
       <c r="O5" t="n">
-        <v>35.91975062245194</v>
+        <v>27.02961234339509</v>
       </c>
       <c r="P5" t="n">
-        <v>35.91975062245194</v>
+        <v>27.02961234339509</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.91975062245194</v>
+        <v>27.02961234339509</v>
       </c>
       <c r="R5" t="n">
         <v>35.91975062245194</v>
@@ -4597,22 +4597,22 @@
         <v>26.84910652587317</v>
       </c>
       <c r="T5" t="n">
-        <v>18.85968320560659</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="U5" t="n">
-        <v>18.85968320560659</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="V5" t="n">
-        <v>18.85968320560659</v>
+        <v>8.707818332715618</v>
       </c>
       <c r="W5" t="n">
-        <v>18.85968320560659</v>
+        <v>8.707818332715618</v>
       </c>
       <c r="X5" t="n">
-        <v>18.85968320560659</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.85968320560659</v>
+        <v>0.7183950124490389</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>18.85968320560659</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18.85968320560659</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.85968320560659</v>
+      </c>
+      <c r="E6" t="n">
         <v>9.789039109027813</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7183950124490389</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7183950124490389</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7183950124490389</v>
       </c>
       <c r="F6" t="n">
         <v>0.7183950124490389</v>
@@ -4658,7 +4658,7 @@
         <v>17.13594622921845</v>
       </c>
       <c r="N6" t="n">
-        <v>26.02608450827531</v>
+        <v>22.3593791854106</v>
       </c>
       <c r="O6" t="n">
         <v>31.24951746446745</v>
@@ -4673,22 +4673,22 @@
         <v>35.91975062245194</v>
       </c>
       <c r="S6" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="T6" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="U6" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="V6" t="n">
-        <v>35.91975062245194</v>
+        <v>18.85968320560659</v>
       </c>
       <c r="W6" t="n">
-        <v>35.91975062245194</v>
+        <v>18.85968320560659</v>
       </c>
       <c r="X6" t="n">
-        <v>27.93032730218536</v>
+        <v>18.85968320560659</v>
       </c>
       <c r="Y6" t="n">
         <v>18.85968320560659</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7183950124490389</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7183950124490389</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7183950124490389</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7183950124490389</v>
+        <v>9.789039109027813</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7183950124490389</v>
+        <v>9.789039109027813</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7183950124490389</v>
+        <v>9.789039109027813</v>
       </c>
       <c r="H7" t="n">
         <v>0.7183950124490389</v>
@@ -4725,37 +4725,37 @@
         <v>0.7183950124490389</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7183950124490389</v>
+        <v>9.608533291505895</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7183950124490389</v>
+        <v>18.49867157056275</v>
       </c>
       <c r="L7" t="n">
-        <v>9.608533291505895</v>
+        <v>18.49867157056275</v>
       </c>
       <c r="M7" t="n">
-        <v>18.13947406433823</v>
+        <v>18.49867157056275</v>
       </c>
       <c r="N7" t="n">
+        <v>18.49867157056275</v>
+      </c>
+      <c r="O7" t="n">
         <v>27.02961234339509</v>
       </c>
-      <c r="O7" t="n">
-        <v>35.91975062245194</v>
-      </c>
       <c r="P7" t="n">
-        <v>35.91975062245194</v>
+        <v>27.02961234339509</v>
       </c>
       <c r="Q7" t="n">
         <v>35.91975062245194</v>
       </c>
       <c r="R7" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="S7" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="T7" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="U7" t="n">
         <v>26.84910652587317</v>
@@ -4764,13 +4764,13 @@
         <v>17.77846242929439</v>
       </c>
       <c r="W7" t="n">
-        <v>8.707818332715618</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7183950124490389</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7183950124490389</v>
+        <v>17.77846242929439</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.457464581624007</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="C8" t="n">
-        <v>1.457464581624007</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="D8" t="n">
-        <v>1.457464581624007</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="E8" t="n">
-        <v>1.457464581624007</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="F8" t="n">
-        <v>1.457464581624007</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="G8" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H8" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I8" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J8" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K8" t="n">
-        <v>5.219099475992264</v>
+        <v>5.219099475992266</v>
       </c>
       <c r="L8" t="n">
-        <v>15.88227649088179</v>
+        <v>15.88227649088181</v>
       </c>
       <c r="M8" t="n">
-        <v>32.89339907886387</v>
+        <v>32.89339907886389</v>
       </c>
       <c r="N8" t="n">
-        <v>50.92952327646095</v>
+        <v>50.92952327646103</v>
       </c>
       <c r="O8" t="n">
-        <v>65.79354395927294</v>
+        <v>65.79354395927301</v>
       </c>
       <c r="P8" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Q8" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R8" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S8" t="n">
-        <v>72.87322908120038</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="T8" t="n">
-        <v>72.87322908120038</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="U8" t="n">
-        <v>72.87322908120038</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="V8" t="n">
-        <v>54.47089850513967</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="W8" t="n">
-        <v>36.06856792907897</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="X8" t="n">
-        <v>17.66623735301826</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.457464581624007</v>
+        <v>36.06856792907901</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56.66445630980611</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="C9" t="n">
-        <v>56.66445630980611</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="D9" t="n">
-        <v>38.26212573374541</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="E9" t="n">
-        <v>38.26212573374541</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="F9" t="n">
-        <v>19.85979515768471</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="G9" t="n">
-        <v>19.85979515768471</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H9" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I9" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J9" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K9" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="L9" t="n">
-        <v>14.93961824937913</v>
+        <v>14.93961824937914</v>
       </c>
       <c r="M9" t="n">
-        <v>28.67140894156419</v>
+        <v>32.97574244697626</v>
       </c>
       <c r="N9" t="n">
-        <v>46.70753313916128</v>
+        <v>46.70753313916134</v>
       </c>
       <c r="O9" t="n">
-        <v>62.96599962173941</v>
+        <v>62.96599962173947</v>
       </c>
       <c r="P9" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Q9" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R9" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S9" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="T9" t="n">
-        <v>72.87322908120038</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="U9" t="n">
-        <v>72.87322908120038</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="V9" t="n">
-        <v>72.87322908120038</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="W9" t="n">
-        <v>72.87322908120038</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="X9" t="n">
-        <v>72.87322908120038</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="Y9" t="n">
-        <v>72.87322908120038</v>
+        <v>38.26212573374545</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="C10" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="D10" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="E10" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F10" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G10" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H10" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I10" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J10" t="n">
-        <v>19.4935887792211</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K10" t="n">
-        <v>37.52971297681819</v>
+        <v>19.49358877922112</v>
       </c>
       <c r="L10" t="n">
-        <v>54.24203029579462</v>
+        <v>37.52971297681823</v>
       </c>
       <c r="M10" t="n">
-        <v>72.27815449339171</v>
+        <v>55.56583717441534</v>
       </c>
       <c r="N10" t="n">
-        <v>72.87322908120038</v>
+        <v>56.16091176222402</v>
       </c>
       <c r="O10" t="n">
-        <v>72.87322908120038</v>
+        <v>56.16091176222402</v>
       </c>
       <c r="P10" t="n">
-        <v>72.87322908120038</v>
+        <v>56.16091176222402</v>
       </c>
       <c r="Q10" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R10" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S10" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="T10" t="n">
-        <v>72.87322908120038</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="U10" t="n">
-        <v>72.87322908120038</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="V10" t="n">
-        <v>54.47089850513967</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="W10" t="n">
-        <v>36.06856792907897</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="X10" t="n">
-        <v>17.66623735301826</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.66623735301826</v>
+        <v>1.457464581624009</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>401.6762258154014</v>
+        <v>594.864098947087</v>
       </c>
       <c r="C11" t="n">
-        <v>208.4883526837154</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="D11" t="n">
-        <v>15.30047955202952</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="E11" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="F11" t="n">
         <v>15.30047955202952</v>
@@ -5038,55 +5038,55 @@
         <v>15.30047955202952</v>
       </c>
       <c r="I11" t="n">
-        <v>15.30047955202953</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="J11" t="n">
-        <v>61.47172875552906</v>
+        <v>61.4717287555292</v>
       </c>
       <c r="K11" t="n">
-        <v>138.9154718648983</v>
+        <v>138.9154718648985</v>
       </c>
       <c r="L11" t="n">
-        <v>240.9878195381905</v>
+        <v>240.9878195381906</v>
       </c>
       <c r="M11" t="n">
-        <v>359.7092571452448</v>
+        <v>359.709257145245</v>
       </c>
       <c r="N11" t="n">
-        <v>481.1014755937832</v>
+        <v>481.1014755937834</v>
       </c>
       <c r="O11" t="n">
         <v>593.5617252439824</v>
       </c>
       <c r="P11" t="n">
-        <v>683.937533821016</v>
+        <v>683.9375338210157</v>
       </c>
       <c r="Q11" t="n">
-        <v>743.9779309475101</v>
+        <v>743.9779309475098</v>
       </c>
       <c r="R11" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="S11" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="T11" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="U11" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="V11" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="W11" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="X11" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="Y11" t="n">
-        <v>571.8361044697903</v>
+        <v>594.864098947087</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>119.1404380367445</v>
+        <v>142.842536943443</v>
       </c>
       <c r="C12" t="n">
-        <v>119.1404380367445</v>
+        <v>25.33663346094777</v>
       </c>
       <c r="D12" t="n">
-        <v>15.30047955202952</v>
+        <v>25.33663346094777</v>
       </c>
       <c r="E12" t="n">
-        <v>15.30047955202952</v>
+        <v>25.33663346094777</v>
       </c>
       <c r="F12" t="n">
         <v>15.30047955202952</v>
@@ -5117,55 +5117,55 @@
         <v>15.30047955202952</v>
       </c>
       <c r="I12" t="n">
-        <v>15.63279539966781</v>
+        <v>37.50608815001939</v>
       </c>
       <c r="J12" t="n">
-        <v>75.57837412443347</v>
+        <v>226.8495226063847</v>
       </c>
       <c r="K12" t="n">
-        <v>130.0527438278413</v>
+        <v>281.3238923097924</v>
       </c>
       <c r="L12" t="n">
-        <v>210.8276693865496</v>
+        <v>362.0988178685008</v>
       </c>
       <c r="M12" t="n">
-        <v>308.2336886844517</v>
+        <v>459.5048371664029</v>
       </c>
       <c r="N12" t="n">
-        <v>410.559160271322</v>
+        <v>561.8303087532731</v>
       </c>
       <c r="O12" t="n">
-        <v>500.5562591499922</v>
+        <v>651.8274076319434</v>
       </c>
       <c r="P12" t="n">
-        <v>569.6452420199839</v>
+        <v>720.9163905019351</v>
       </c>
       <c r="Q12" t="n">
-        <v>758.9886764763493</v>
+        <v>758.9886764763489</v>
       </c>
       <c r="R12" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="S12" t="n">
-        <v>765.0239776014762</v>
+        <v>692.6956294401517</v>
       </c>
       <c r="T12" t="n">
-        <v>765.0239776014762</v>
+        <v>692.6956294401517</v>
       </c>
       <c r="U12" t="n">
-        <v>604.7326668218302</v>
+        <v>692.6956294401517</v>
       </c>
       <c r="V12" t="n">
-        <v>604.7326668218302</v>
+        <v>499.5077563084659</v>
       </c>
       <c r="W12" t="n">
-        <v>411.5447936901443</v>
+        <v>306.3198831767801</v>
       </c>
       <c r="X12" t="n">
-        <v>248.0674474568072</v>
+        <v>142.842536943443</v>
       </c>
       <c r="Y12" t="n">
-        <v>248.0674474568072</v>
+        <v>142.842536943443</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>378.6482313381043</v>
+        <v>408.7770812402674</v>
       </c>
       <c r="C13" t="n">
-        <v>327.3485318061884</v>
+        <v>236.8045181191834</v>
       </c>
       <c r="D13" t="n">
-        <v>327.3485318061884</v>
+        <v>155.4867575807488</v>
       </c>
       <c r="E13" t="n">
-        <v>327.3485318061884</v>
+        <v>155.4867575807488</v>
       </c>
       <c r="F13" t="n">
         <v>155.4867575807488</v>
@@ -5199,52 +5199,52 @@
         <v>15.30047955202952</v>
       </c>
       <c r="J13" t="n">
-        <v>23.00527047835668</v>
+        <v>100.9269871265775</v>
       </c>
       <c r="K13" t="n">
-        <v>113.7135246767623</v>
+        <v>126.406721676665</v>
       </c>
       <c r="L13" t="n">
-        <v>303.0569591331276</v>
+        <v>163.8717016618133</v>
       </c>
       <c r="M13" t="n">
-        <v>492.400393589493</v>
+        <v>343.4129978558668</v>
       </c>
       <c r="N13" t="n">
-        <v>532.7564323122323</v>
+        <v>532.7564323122321</v>
       </c>
       <c r="O13" t="n">
-        <v>566.7308889377138</v>
+        <v>566.7308889377135</v>
       </c>
       <c r="P13" t="n">
-        <v>756.0743233940791</v>
+        <v>756.0743233940788</v>
       </c>
       <c r="Q13" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="R13" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="S13" t="n">
-        <v>765.0239776014762</v>
+        <v>601.9649543719532</v>
       </c>
       <c r="T13" t="n">
-        <v>765.0239776014762</v>
+        <v>601.9649543719532</v>
       </c>
       <c r="U13" t="n">
-        <v>765.0239776014762</v>
+        <v>601.9649543719532</v>
       </c>
       <c r="V13" t="n">
-        <v>571.8361044697903</v>
+        <v>408.7770812402674</v>
       </c>
       <c r="W13" t="n">
-        <v>571.8361044697903</v>
+        <v>408.7770812402674</v>
       </c>
       <c r="X13" t="n">
-        <v>571.8361044697903</v>
+        <v>408.7770812402674</v>
       </c>
       <c r="Y13" t="n">
-        <v>378.6482313381043</v>
+        <v>408.7770812402674</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>314.1601561121878</v>
+        <v>600.6317174916203</v>
       </c>
       <c r="C14" t="n">
-        <v>314.1601561121878</v>
+        <v>187.4454049547903</v>
       </c>
       <c r="D14" t="n">
-        <v>314.1601561121878</v>
+        <v>187.4454049547903</v>
       </c>
       <c r="E14" t="n">
-        <v>314.1601561121878</v>
+        <v>187.4454049547903</v>
       </c>
       <c r="F14" t="n">
-        <v>314.1601561121878</v>
+        <v>187.4454049547903</v>
       </c>
       <c r="G14" t="n">
-        <v>314.1601561121878</v>
+        <v>32.72435595291694</v>
       </c>
       <c r="H14" t="n">
-        <v>32.72435595291696</v>
+        <v>32.72435595291694</v>
       </c>
       <c r="I14" t="n">
-        <v>59.1502726887652</v>
+        <v>59.15027268876521</v>
       </c>
       <c r="J14" t="n">
         <v>163.4984663332013</v>
       </c>
       <c r="K14" t="n">
-        <v>328.1343683424517</v>
+        <v>328.1343683424514</v>
       </c>
       <c r="L14" t="n">
-        <v>538.3762991891407</v>
+        <v>538.3762991891404</v>
       </c>
       <c r="M14" t="n">
-        <v>777.4572401239564</v>
+        <v>777.4572401239558</v>
       </c>
       <c r="N14" t="n">
-        <v>1021.156504496086</v>
+        <v>1021.156504496085</v>
       </c>
       <c r="O14" t="n">
-        <v>1249.107829392434</v>
+        <v>1249.107829392433</v>
       </c>
       <c r="P14" t="n">
-        <v>1438.052598711596</v>
+        <v>1438.052598711595</v>
       </c>
       <c r="Q14" t="n">
-        <v>1572.114180350335</v>
+        <v>1572.114180350334</v>
       </c>
       <c r="R14" t="n">
-        <v>1636.217797645848</v>
+        <v>1636.217797645847</v>
       </c>
       <c r="S14" t="n">
-        <v>1636.217797645848</v>
+        <v>1568.414143653838</v>
       </c>
       <c r="T14" t="n">
-        <v>1636.217797645848</v>
+        <v>1354.512482065024</v>
       </c>
       <c r="U14" t="n">
-        <v>1377.991252091335</v>
+        <v>1354.512482065024</v>
       </c>
       <c r="V14" t="n">
-        <v>1020.501837217584</v>
+        <v>997.0230671912734</v>
       </c>
       <c r="W14" t="n">
-        <v>624.1104875179312</v>
+        <v>600.6317174916203</v>
       </c>
       <c r="X14" t="n">
-        <v>314.1601561121878</v>
+        <v>600.6317174916203</v>
       </c>
       <c r="Y14" t="n">
-        <v>314.1601561121878</v>
+        <v>600.6317174916203</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>414.1169591636394</v>
+        <v>545.6132448197634</v>
       </c>
       <c r="C15" t="n">
-        <v>296.6110556811442</v>
+        <v>428.1073413372682</v>
       </c>
       <c r="D15" t="n">
-        <v>231.0721199970756</v>
+        <v>324.2673828525532</v>
       </c>
       <c r="E15" t="n">
-        <v>126.3701862700128</v>
+        <v>219.5654491254904</v>
       </c>
       <c r="F15" t="n">
-        <v>32.72435595291696</v>
+        <v>125.9196188083946</v>
       </c>
       <c r="G15" t="n">
-        <v>32.72435595291696</v>
+        <v>32.72435595291694</v>
       </c>
       <c r="H15" t="n">
-        <v>32.72435595291696</v>
+        <v>32.72435595291694</v>
       </c>
       <c r="I15" t="n">
-        <v>45.68379440502422</v>
+        <v>69.14110024943602</v>
       </c>
       <c r="J15" t="n">
-        <v>252.7330649573084</v>
+        <v>420.3347618664506</v>
       </c>
       <c r="K15" t="n">
-        <v>657.6969698746558</v>
+        <v>657.6969698746553</v>
       </c>
       <c r="L15" t="n">
-        <v>818.1031953740313</v>
+        <v>818.1031953740307</v>
       </c>
       <c r="M15" t="n">
-        <v>1008.435185736924</v>
+        <v>1008.435185736923</v>
       </c>
       <c r="N15" t="n">
-        <v>1206.146102333018</v>
+        <v>1206.146102333017</v>
       </c>
       <c r="O15" t="n">
-        <v>1383.402248335844</v>
+        <v>1383.402248335843</v>
       </c>
       <c r="P15" t="n">
-        <v>1522.524309416456</v>
+        <v>1522.524309416455</v>
       </c>
       <c r="Q15" t="n">
-        <v>1607.41185351577</v>
+        <v>1607.411853515769</v>
       </c>
       <c r="R15" t="n">
-        <v>1636.217797645848</v>
+        <v>1636.217797645847</v>
       </c>
       <c r="S15" t="n">
-        <v>1570.839976985608</v>
+        <v>1636.217797645847</v>
       </c>
       <c r="T15" t="n">
-        <v>1432.420434721172</v>
+        <v>1497.798255381411</v>
       </c>
       <c r="U15" t="n">
-        <v>1247.708719491264</v>
+        <v>1379.205005147388</v>
       </c>
       <c r="V15" t="n">
-        <v>1042.73558063053</v>
+        <v>1174.231866286654</v>
       </c>
       <c r="W15" t="n">
-        <v>846.2142034637469</v>
+        <v>977.7104891198709</v>
       </c>
       <c r="X15" t="n">
-        <v>682.7368572304098</v>
+        <v>814.2331428865338</v>
       </c>
       <c r="Y15" t="n">
-        <v>543.0439685837022</v>
+        <v>674.5402542398261</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.4361031708196</v>
+        <v>641.9168824623059</v>
       </c>
       <c r="C16" t="n">
-        <v>32.72435595291696</v>
+        <v>469.9443193412219</v>
       </c>
       <c r="D16" t="n">
-        <v>32.72435595291696</v>
+        <v>469.9443193412219</v>
       </c>
       <c r="E16" t="n">
-        <v>32.72435595291696</v>
+        <v>469.9443193412219</v>
       </c>
       <c r="F16" t="n">
-        <v>32.72435595291696</v>
+        <v>298.0825451157823</v>
       </c>
       <c r="G16" t="n">
-        <v>32.72435595291696</v>
+        <v>170.1214366797517</v>
       </c>
       <c r="H16" t="n">
-        <v>32.72435595291696</v>
+        <v>32.72435595291694</v>
       </c>
       <c r="I16" t="n">
-        <v>32.72435595291696</v>
+        <v>32.72435595291694</v>
       </c>
       <c r="J16" t="n">
         <v>140.0890279724169</v>
       </c>
       <c r="K16" t="n">
-        <v>201.2912444058124</v>
+        <v>448.5738535198344</v>
       </c>
       <c r="L16" t="n">
-        <v>284.4687023815413</v>
+        <v>531.7513114955632</v>
       </c>
       <c r="M16" t="n">
-        <v>689.4326072988886</v>
+        <v>936.7152164129102</v>
       </c>
       <c r="N16" t="n">
-        <v>1094.396512216236</v>
+        <v>1309.55356380876</v>
       </c>
       <c r="O16" t="n">
-        <v>1171.830526613366</v>
+        <v>1386.98757820589</v>
       </c>
       <c r="P16" t="n">
-        <v>1450.148184352637</v>
+        <v>1450.148184352636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.217797645848</v>
+        <v>1636.217797645847</v>
       </c>
       <c r="R16" t="n">
-        <v>1636.217797645848</v>
+        <v>1636.217797645847</v>
       </c>
       <c r="S16" t="n">
-        <v>1636.217797645848</v>
+        <v>1478.625943360816</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.217797645848</v>
+        <v>1478.625943360816</v>
       </c>
       <c r="U16" t="n">
-        <v>1356.072607966796</v>
+        <v>1198.480753681764</v>
       </c>
       <c r="V16" t="n">
-        <v>1074.361140574825</v>
+        <v>916.7692862897929</v>
       </c>
       <c r="W16" t="n">
-        <v>799.5087367473382</v>
+        <v>641.9168824623059</v>
       </c>
       <c r="X16" t="n">
-        <v>556.9448401931432</v>
+        <v>641.9168824623059</v>
       </c>
       <c r="Y16" t="n">
-        <v>330.6020718828853</v>
+        <v>641.9168824623059</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>982.239940795831</v>
+        <v>1716.869967298035</v>
       </c>
       <c r="C17" t="n">
-        <v>555.3392108091311</v>
+        <v>1289.969237311335</v>
       </c>
       <c r="D17" t="n">
-        <v>555.3392108091311</v>
+        <v>1289.969237311335</v>
       </c>
       <c r="E17" t="n">
-        <v>555.3392108091311</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="F17" t="n">
-        <v>130.2150289985314</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G17" t="n">
         <v>36.27616607839228</v>
@@ -5512,28 +5512,28 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149078</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250295</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303098</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103475</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N17" t="n">
-        <v>1131.245262923651</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O17" t="n">
-        <v>1382.739131455146</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P17" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q17" t="n">
         <v>1740.92751718922</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1716.869967298035</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1716.869967298035</v>
       </c>
       <c r="V17" t="n">
-        <v>1813.808303919614</v>
+        <v>1716.869967298035</v>
       </c>
       <c r="W17" t="n">
-        <v>1813.808303919614</v>
+        <v>1716.869967298035</v>
       </c>
       <c r="X17" t="n">
-        <v>1402.088305087361</v>
+        <v>1716.869967298035</v>
       </c>
       <c r="Y17" t="n">
-        <v>1402.088305087361</v>
+        <v>1716.869967298035</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607419</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760269</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H18" t="n">
         <v>36.27616607839228</v>
@@ -5594,28 +5594,28 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>271.4329055423831</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>397.201531113623</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L18" t="n">
-        <v>573.8403819442719</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M18" t="n">
-        <v>783.1150804252869</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N18" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O18" t="n">
-        <v>1427.076302632878</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P18" t="n">
-        <v>1580.474417479231</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q18" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R18" t="n">
         <v>1813.808303919614</v>
@@ -5627,19 +5627,19 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U18" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.9690113199838</v>
+        <v>320.6031599919343</v>
       </c>
       <c r="C19" t="n">
-        <v>613.8636510974488</v>
+        <v>320.6031599919343</v>
       </c>
       <c r="D19" t="n">
-        <v>450.5468782242195</v>
+        <v>320.6031599919343</v>
       </c>
       <c r="E19" t="n">
-        <v>284.3386723770731</v>
+        <v>320.6031599919343</v>
       </c>
       <c r="F19" t="n">
-        <v>112.4768981516335</v>
+        <v>148.7413857664947</v>
       </c>
       <c r="G19" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I19" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
-        <v>70.15038753583895</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K19" t="n">
-        <v>138.6345353799611</v>
+        <v>385.9171444939832</v>
       </c>
       <c r="L19" t="n">
-        <v>556.9154193001992</v>
+        <v>834.8346997140877</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.832974520304</v>
+        <v>932.8880472917069</v>
       </c>
       <c r="N19" t="n">
-        <v>1102.831680612252</v>
+        <v>1029.886753383655</v>
       </c>
       <c r="O19" t="n">
-        <v>1551.749235832356</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P19" t="n">
         <v>1622.490343973492</v>
@@ -5700,25 +5700,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1657.330917251774</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U19" t="n">
-        <v>1377.189215734279</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V19" t="n">
-        <v>1095.477748342307</v>
+        <v>1011.964300841745</v>
       </c>
       <c r="W19" t="n">
-        <v>1095.477748342307</v>
+        <v>737.1118970142579</v>
       </c>
       <c r="X19" t="n">
-        <v>1095.477748342307</v>
+        <v>737.1118970142579</v>
       </c>
       <c r="Y19" t="n">
-        <v>869.1349800320495</v>
+        <v>510.769128704</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1567.260677423913</v>
+        <v>917.6849805184709</v>
       </c>
       <c r="C20" t="n">
-        <v>1567.260677423913</v>
+        <v>490.784250531771</v>
       </c>
       <c r="D20" t="n">
-        <v>1143.968056608913</v>
+        <v>490.784250531771</v>
       </c>
       <c r="E20" t="n">
-        <v>1143.968056608913</v>
+        <v>490.784250531771</v>
       </c>
       <c r="F20" t="n">
-        <v>718.8438747983129</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G20" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250298</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U20" t="n">
-        <v>1567.260677423913</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V20" t="n">
-        <v>1567.260677423913</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W20" t="n">
-        <v>1567.260677423913</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X20" t="n">
-        <v>1567.260677423913</v>
+        <v>1337.533344810001</v>
       </c>
       <c r="Y20" t="n">
-        <v>1567.260677423913</v>
+        <v>1337.533344810001</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C21" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D21" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G21" t="n">
         <v>80.62417733004328</v>
@@ -5831,52 +5831,52 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>271.4329055423823</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>397.2015311136223</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>573.8403819442713</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>783.1150804252862</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R21" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S21" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T21" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U21" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V21" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W21" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X21" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>320.6031599919339</v>
+        <v>702.8987504251397</v>
       </c>
       <c r="C22" t="n">
-        <v>148.6305968708499</v>
+        <v>702.8987504251397</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6305968708499</v>
+        <v>702.8987504251397</v>
       </c>
       <c r="E22" t="n">
-        <v>148.6305968708499</v>
+        <v>536.6905445779933</v>
       </c>
       <c r="F22" t="n">
-        <v>148.6305968708499</v>
+        <v>364.8287703525536</v>
       </c>
       <c r="G22" t="n">
-        <v>36.27616607839228</v>
+        <v>199.3554953204596</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I22" t="n">
         <v>36.27616607839228</v>
@@ -5916,19 +5916,19 @@
         <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>912.7564163623084</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
         <v>1010.809763939928</v>
       </c>
       <c r="N22" t="n">
-        <v>1107.808470031875</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O22" t="n">
-        <v>1238.993031259048</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
@@ -5937,25 +5937,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T22" t="n">
-        <v>1573.817469751211</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U22" t="n">
-        <v>1293.675768233716</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="V22" t="n">
-        <v>1011.964300841744</v>
+        <v>1135.6286156914</v>
       </c>
       <c r="W22" t="n">
-        <v>737.1118970142575</v>
+        <v>1135.6286156914</v>
       </c>
       <c r="X22" t="n">
-        <v>737.1118970142575</v>
+        <v>893.0647191372053</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.7691287039995</v>
+        <v>893.0647191372053</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2299.442080053587</v>
+        <v>1545.561315480183</v>
       </c>
       <c r="C23" t="n">
-        <v>2000.881891195384</v>
+        <v>1118.660585493483</v>
       </c>
       <c r="D23" t="n">
-        <v>1577.589270380385</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="E23" t="n">
-        <v>1151.612330528242</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F23" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G23" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H23" t="n">
         <v>50.20544392206814</v>
@@ -5992,10 +5992,10 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K23" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998225</v>
       </c>
       <c r="L23" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230812</v>
       </c>
       <c r="M23" t="n">
         <v>1196.576905080624</v>
@@ -6004,10 +6004,10 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O23" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P23" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q23" t="n">
         <v>2402.969627965676</v>
@@ -6025,16 +6025,16 @@
         <v>2299.442080053587</v>
       </c>
       <c r="V23" t="n">
-        <v>2299.442080053587</v>
+        <v>1941.952665179836</v>
       </c>
       <c r="W23" t="n">
-        <v>2299.442080053587</v>
+        <v>1545.561315480183</v>
       </c>
       <c r="X23" t="n">
-        <v>2299.442080053587</v>
+        <v>1545.561315480183</v>
       </c>
       <c r="Y23" t="n">
-        <v>2299.442080053587</v>
+        <v>1545.561315480183</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>50.20544392206814</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145916</v>
       </c>
       <c r="J24" t="n">
-        <v>169.6881981570805</v>
+        <v>169.6881981570804</v>
       </c>
       <c r="K24" t="n">
-        <v>342.8010428266101</v>
+        <v>342.8010428266098</v>
       </c>
       <c r="L24" t="n">
-        <v>583.1000388744361</v>
+        <v>583.1000388744359</v>
       </c>
       <c r="M24" t="n">
-        <v>866.6631241688301</v>
+        <v>866.6631241688299</v>
       </c>
       <c r="N24" t="n">
         <v>1160.072685361481</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>888.7872411688232</v>
+        <v>622.9574278005748</v>
       </c>
       <c r="C25" t="n">
-        <v>716.8146780477392</v>
+        <v>450.9848646794908</v>
       </c>
       <c r="D25" t="n">
-        <v>553.4979051745099</v>
+        <v>450.9848646794908</v>
       </c>
       <c r="E25" t="n">
-        <v>387.2896993273635</v>
+        <v>284.7766588323443</v>
       </c>
       <c r="F25" t="n">
-        <v>215.4279251019238</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="G25" t="n">
-        <v>50.20544392206814</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="H25" t="n">
-        <v>50.20544392206814</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I25" t="n">
         <v>50.20544392206814</v>
@@ -6156,7 +6156,7 @@
         <v>1029.13318792779</v>
       </c>
       <c r="M25" t="n">
-        <v>1165.717281597245</v>
+        <v>1251.793633551212</v>
       </c>
       <c r="N25" t="n">
         <v>1386.406910713385</v>
@@ -6174,25 +6174,25 @@
         <v>2509.74794869205</v>
       </c>
       <c r="S25" t="n">
-        <v>2509.74794869205</v>
+        <v>2357.641214885491</v>
       </c>
       <c r="T25" t="n">
-        <v>2270.828688255938</v>
+        <v>2118.721954449379</v>
       </c>
       <c r="U25" t="n">
-        <v>1990.700666403111</v>
+        <v>1838.593932596551</v>
       </c>
       <c r="V25" t="n">
-        <v>1708.989199011139</v>
+        <v>1556.88246520458</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.136795183652</v>
+        <v>1282.030061377093</v>
       </c>
       <c r="X25" t="n">
-        <v>1305.295978191147</v>
+        <v>1039.466164822898</v>
       </c>
       <c r="Y25" t="n">
-        <v>1078.953209880889</v>
+        <v>813.1233965126405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1577.589270380385</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="C26" t="n">
-        <v>1577.589270380385</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="D26" t="n">
-        <v>1577.589270380385</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="E26" t="n">
         <v>1151.612330528242</v>
@@ -6217,22 +6217,22 @@
         <v>726.4881487176426</v>
       </c>
       <c r="G26" t="n">
-        <v>324.4553010199516</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H26" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010162</v>
       </c>
       <c r="J26" t="n">
-        <v>265.8602102853079</v>
+        <v>265.860210285308</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L26" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230816</v>
       </c>
       <c r="M26" t="n">
         <v>1196.576905080624</v>
@@ -6244,34 +6244,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P26" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q26" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R26" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S26" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T26" t="n">
-        <v>2458.457769745854</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U26" t="n">
-        <v>2458.457769745854</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V26" t="n">
-        <v>2458.457769745854</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W26" t="n">
-        <v>2062.066420046202</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="X26" t="n">
-        <v>1650.346421213949</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="Y26" t="n">
-        <v>1577.589270380385</v>
+        <v>1235.576476896072</v>
       </c>
     </row>
     <row r="27">
@@ -6296,25 +6296,25 @@
         <v>184.4841739339245</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H27" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145916</v>
       </c>
       <c r="J27" t="n">
-        <v>169.6881981570805</v>
+        <v>169.6881981570804</v>
       </c>
       <c r="K27" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266098</v>
       </c>
       <c r="L27" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744359</v>
       </c>
       <c r="M27" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688299</v>
       </c>
       <c r="N27" t="n">
         <v>1160.072685361481</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.044643174396</v>
+        <v>926.8221619945407</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0720800533123</v>
+        <v>754.8495988734567</v>
       </c>
       <c r="D28" t="n">
-        <v>756.755307180083</v>
+        <v>591.5328260002274</v>
       </c>
       <c r="E28" t="n">
-        <v>590.5471013329366</v>
+        <v>425.3246201530809</v>
       </c>
       <c r="F28" t="n">
-        <v>418.685327107497</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="G28" t="n">
-        <v>253.4628459276413</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H28" t="n">
         <v>118.8641208752695</v>
       </c>
       <c r="I28" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J28" t="n">
         <v>179.3796579864558</v>
@@ -6393,19 +6393,19 @@
         <v>1029.13318792779</v>
       </c>
       <c r="M28" t="n">
-        <v>1579.252762060067</v>
+        <v>1165.717281597245</v>
       </c>
       <c r="N28" t="n">
-        <v>1764.109235016588</v>
+        <v>1386.406910713385</v>
       </c>
       <c r="O28" t="n">
         <v>1885.145507317012</v>
       </c>
       <c r="P28" t="n">
-        <v>2298.371582196147</v>
+        <v>2298.371582196148</v>
       </c>
       <c r="Q28" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="R28" t="n">
         <v>2509.74794869205</v>
@@ -6414,22 +6414,22 @@
         <v>2357.641214885491</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.721954449379</v>
+        <v>2118.72195444938</v>
       </c>
       <c r="U28" t="n">
-        <v>2118.721954449379</v>
+        <v>1838.593932596552</v>
       </c>
       <c r="V28" t="n">
-        <v>1837.010487057408</v>
+        <v>1556.882465204581</v>
       </c>
       <c r="W28" t="n">
-        <v>1751.117276750915</v>
+        <v>1556.882465204581</v>
       </c>
       <c r="X28" t="n">
-        <v>1508.55338019672</v>
+        <v>1314.318568650386</v>
       </c>
       <c r="Y28" t="n">
-        <v>1282.210611886462</v>
+        <v>1087.975800340128</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>726.4881487176426</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="C29" t="n">
-        <v>726.4881487176426</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="D29" t="n">
-        <v>726.4881487176426</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="E29" t="n">
-        <v>726.4881487176426</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="F29" t="n">
         <v>726.4881487176426</v>
@@ -6463,22 +6463,22 @@
         <v>103.1440473010161</v>
       </c>
       <c r="J29" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K29" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998229</v>
       </c>
       <c r="L29" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230816</v>
       </c>
       <c r="M29" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N29" t="n">
         <v>1562.984812457614</v>
       </c>
       <c r="O29" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P29" t="n">
         <v>2194.643812107885</v>
@@ -6505,10 +6505,10 @@
         <v>1235.576476896072</v>
       </c>
       <c r="X29" t="n">
-        <v>823.8564780638192</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="Y29" t="n">
-        <v>726.4881487176426</v>
+        <v>1235.576476896072</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C30" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D30" t="n">
-        <v>382.8319379780831</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F30" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662158</v>
       </c>
       <c r="H30" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83346633145916</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J30" t="n">
-        <v>169.6881981570804</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K30" t="n">
-        <v>342.8010428266098</v>
+        <v>342.8010428266101</v>
       </c>
       <c r="L30" t="n">
-        <v>583.1000388744359</v>
+        <v>583.1000388744363</v>
       </c>
       <c r="M30" t="n">
-        <v>866.6631241688299</v>
+        <v>866.6631241688304</v>
       </c>
       <c r="N30" t="n">
-        <v>1160.072685361481</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O30" t="n">
         <v>1424.874394922369</v>
@@ -6563,10 +6563,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q30" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R30" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S30" t="n">
         <v>1759.362893661493</v>
@@ -6575,19 +6575,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U30" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V30" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W30" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X30" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y30" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.044643174396</v>
+        <v>623.4816752119327</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0720800533124</v>
+        <v>451.5091120908487</v>
       </c>
       <c r="D31" t="n">
-        <v>756.7553071800832</v>
+        <v>451.5091120908487</v>
       </c>
       <c r="E31" t="n">
-        <v>590.5471013329367</v>
+        <v>425.3246201530809</v>
       </c>
       <c r="F31" t="n">
-        <v>418.6853271074971</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="G31" t="n">
         <v>253.4628459276414</v>
@@ -6627,16 +6627,16 @@
         <v>523.7042607402078</v>
       </c>
       <c r="L31" t="n">
-        <v>1029.13318792779</v>
+        <v>994.0996654535666</v>
       </c>
       <c r="M31" t="n">
-        <v>1165.717281597245</v>
+        <v>1544.219239585844</v>
       </c>
       <c r="N31" t="n">
-        <v>1698.363481601298</v>
+        <v>2076.865439589896</v>
       </c>
       <c r="O31" t="n">
-        <v>2197.102078204925</v>
+        <v>2197.90171189032</v>
       </c>
       <c r="P31" t="n">
         <v>2298.371582196148</v>
@@ -6645,28 +6645,28 @@
         <v>2510.272196103408</v>
       </c>
       <c r="R31" t="n">
-        <v>2509.74794869205</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S31" t="n">
-        <v>2357.641214885491</v>
+        <v>2358.165462296849</v>
       </c>
       <c r="T31" t="n">
-        <v>2357.641214885491</v>
+        <v>2119.246201860737</v>
       </c>
       <c r="U31" t="n">
-        <v>2307.681147970373</v>
+        <v>1839.118180007909</v>
       </c>
       <c r="V31" t="n">
-        <v>2025.969680578402</v>
+        <v>1557.406712615938</v>
       </c>
       <c r="W31" t="n">
-        <v>1751.117276750915</v>
+        <v>1282.554308788451</v>
       </c>
       <c r="X31" t="n">
-        <v>1508.55338019672</v>
+        <v>1039.990412234256</v>
       </c>
       <c r="Y31" t="n">
-        <v>1282.210611886462</v>
+        <v>813.6476439239984</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.589270380385</v>
+        <v>1176.480212817251</v>
       </c>
       <c r="C32" t="n">
-        <v>1577.589270380385</v>
+        <v>749.5794828305513</v>
       </c>
       <c r="D32" t="n">
-        <v>1577.589270380385</v>
+        <v>749.5794828305513</v>
       </c>
       <c r="E32" t="n">
-        <v>1151.612330528242</v>
+        <v>749.5794828305513</v>
       </c>
       <c r="F32" t="n">
-        <v>726.4881487176426</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="G32" t="n">
         <v>324.4553010199516</v>
@@ -6706,19 +6706,19 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L32" t="n">
-        <v>836.7412585230813</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M32" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N32" t="n">
         <v>1562.984812457614</v>
       </c>
       <c r="O32" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P32" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q32" t="n">
         <v>2402.969627965676</v>
@@ -6736,16 +6736,16 @@
         <v>1989.457241469475</v>
       </c>
       <c r="V32" t="n">
-        <v>1989.309269212637</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="W32" t="n">
-        <v>1989.309269212637</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="X32" t="n">
-        <v>1577.589270380385</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="Y32" t="n">
-        <v>1577.589270380385</v>
+        <v>1596.328577108781</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.8221619945407</v>
+        <v>861.8766882366863</v>
       </c>
       <c r="C34" t="n">
-        <v>754.8495988734567</v>
+        <v>689.9041251156023</v>
       </c>
       <c r="D34" t="n">
-        <v>591.5328260002274</v>
+        <v>526.587352242373</v>
       </c>
       <c r="E34" t="n">
-        <v>425.3246201530809</v>
+        <v>360.3791463952265</v>
       </c>
       <c r="F34" t="n">
-        <v>253.4628459276413</v>
+        <v>188.5173721697869</v>
       </c>
       <c r="G34" t="n">
-        <v>253.4628459276413</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H34" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I34" t="n">
         <v>50.20544392206814</v>
@@ -6867,10 +6867,10 @@
         <v>1029.13318792779</v>
       </c>
       <c r="M34" t="n">
-        <v>1579.252762060067</v>
+        <v>1251.793633551212</v>
       </c>
       <c r="N34" t="n">
-        <v>1713.866039222239</v>
+        <v>1386.406910713385</v>
       </c>
       <c r="O34" t="n">
         <v>1885.145507317012</v>
@@ -6888,22 +6888,22 @@
         <v>2357.641214885491</v>
       </c>
       <c r="T34" t="n">
-        <v>2180.02279208915</v>
+        <v>2357.641214885491</v>
       </c>
       <c r="U34" t="n">
-        <v>1899.894770236323</v>
+        <v>2077.513193032663</v>
       </c>
       <c r="V34" t="n">
-        <v>1618.183302844351</v>
+        <v>1795.801725640692</v>
       </c>
       <c r="W34" t="n">
-        <v>1343.330899016864</v>
+        <v>1520.949321813205</v>
       </c>
       <c r="X34" t="n">
-        <v>1343.330899016864</v>
+        <v>1278.38542525901</v>
       </c>
       <c r="Y34" t="n">
-        <v>1116.988130706606</v>
+        <v>1052.042656948752</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1530.232666347583</v>
+        <v>1578.513060514942</v>
       </c>
       <c r="C35" t="n">
-        <v>1103.331936360883</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="D35" t="n">
-        <v>680.0393155458835</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="E35" t="n">
-        <v>680.0393155458835</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="F35" t="n">
-        <v>254.9151337352837</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G35" t="n">
-        <v>254.9151337352837</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H35" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I35" t="n">
-        <v>103.1440473010159</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J35" t="n">
-        <v>265.8602102853074</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998219</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L35" t="n">
-        <v>836.7412585230807</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M35" t="n">
         <v>1196.576905080623</v>
@@ -6952,37 +6952,37 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O35" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P35" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q35" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R35" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S35" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T35" t="n">
-        <v>2299.442080053586</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U35" t="n">
-        <v>2299.442080053586</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="V35" t="n">
-        <v>1941.952665179836</v>
+        <v>1990.233059347195</v>
       </c>
       <c r="W35" t="n">
-        <v>1941.952665179836</v>
+        <v>1990.233059347195</v>
       </c>
       <c r="X35" t="n">
-        <v>1530.232666347583</v>
+        <v>1578.513060514942</v>
       </c>
       <c r="Y35" t="n">
-        <v>1530.232666347583</v>
+        <v>1578.513060514942</v>
       </c>
     </row>
     <row r="36">
@@ -7007,13 +7007,13 @@
         <v>184.4841739339245</v>
       </c>
       <c r="G36" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H36" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I36" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145916</v>
       </c>
       <c r="J36" t="n">
         <v>169.6881981570804</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.044643174396</v>
+        <v>897.8098316280623</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0720800533123</v>
+        <v>725.8372685069783</v>
       </c>
       <c r="D37" t="n">
-        <v>756.755307180083</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="E37" t="n">
-        <v>590.5471013329366</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="F37" t="n">
-        <v>418.685327107497</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G37" t="n">
-        <v>253.4628459276413</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I37" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J37" t="n">
-        <v>179.3796579864558</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K37" t="n">
-        <v>523.7042607402078</v>
+        <v>262.3419113406802</v>
       </c>
       <c r="L37" t="n">
-        <v>1029.13318792779</v>
+        <v>767.7708385282622</v>
       </c>
       <c r="M37" t="n">
-        <v>1579.252762060067</v>
+        <v>1317.890412660539</v>
       </c>
       <c r="N37" t="n">
-        <v>1764.109235016587</v>
+        <v>1850.536612664592</v>
       </c>
       <c r="O37" t="n">
-        <v>1885.145507317011</v>
+        <v>2349.275209268219</v>
       </c>
       <c r="P37" t="n">
-        <v>2298.371582196147</v>
+        <v>2449.745079574047</v>
       </c>
       <c r="Q37" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="R37" t="n">
-        <v>2509.747948692049</v>
+        <v>2509.74794869205</v>
       </c>
       <c r="S37" t="n">
-        <v>2357.64121488549</v>
+        <v>2357.641214885491</v>
       </c>
       <c r="T37" t="n">
-        <v>2357.64121488549</v>
+        <v>2118.72195444938</v>
       </c>
       <c r="U37" t="n">
-        <v>2307.681147970373</v>
+        <v>1838.593932596552</v>
       </c>
       <c r="V37" t="n">
-        <v>2025.969680578402</v>
+        <v>1556.882465204581</v>
       </c>
       <c r="W37" t="n">
-        <v>1751.117276750915</v>
+        <v>1556.882465204581</v>
       </c>
       <c r="X37" t="n">
-        <v>1508.55338019672</v>
+        <v>1314.318568650386</v>
       </c>
       <c r="Y37" t="n">
-        <v>1282.210611886462</v>
+        <v>1087.975800340128</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1177.332970858794</v>
+        <v>1058.569875698501</v>
       </c>
       <c r="C38" t="n">
-        <v>750.4322408720941</v>
+        <v>631.6691457118013</v>
       </c>
       <c r="D38" t="n">
-        <v>750.4322408720941</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="E38" t="n">
-        <v>324.4553010199516</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="F38" t="n">
-        <v>324.4553010199516</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="G38" t="n">
-        <v>324.4553010199516</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H38" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I38" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J38" t="n">
-        <v>265.8602102853083</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K38" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L38" t="n">
-        <v>836.7412585230816</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M38" t="n">
         <v>1196.576905080624</v>
@@ -7195,13 +7195,13 @@
         <v>2194.643812107885</v>
       </c>
       <c r="Q38" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R38" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S38" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T38" t="n">
         <v>2247.627653696034</v>
@@ -7210,16 +7210,16 @@
         <v>2247.627653696034</v>
       </c>
       <c r="V38" t="n">
-        <v>2247.627653696034</v>
+        <v>1890.138238822284</v>
       </c>
       <c r="W38" t="n">
-        <v>2002.518605195434</v>
+        <v>1890.138238822284</v>
       </c>
       <c r="X38" t="n">
-        <v>2002.518605195434</v>
+        <v>1478.418239990031</v>
       </c>
       <c r="Y38" t="n">
-        <v>1597.181335150324</v>
+        <v>1478.418239990031</v>
       </c>
     </row>
     <row r="39">
@@ -7244,25 +7244,25 @@
         <v>184.4841739339245</v>
       </c>
       <c r="G39" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H39" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145916</v>
       </c>
       <c r="J39" t="n">
-        <v>169.6881981570805</v>
+        <v>169.6881981570804</v>
       </c>
       <c r="K39" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266098</v>
       </c>
       <c r="L39" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744359</v>
       </c>
       <c r="M39" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688299</v>
       </c>
       <c r="N39" t="n">
         <v>1160.072685361481</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.044643174396</v>
+        <v>725.4704682955939</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0720800533123</v>
+        <v>553.4979051745099</v>
       </c>
       <c r="D40" t="n">
-        <v>756.755307180083</v>
+        <v>553.4979051745099</v>
       </c>
       <c r="E40" t="n">
-        <v>590.5471013329366</v>
+        <v>387.2896993273635</v>
       </c>
       <c r="F40" t="n">
-        <v>418.685327107497</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="G40" t="n">
-        <v>253.4628459276413</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I40" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J40" t="n">
-        <v>179.3796579864558</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K40" t="n">
-        <v>523.7042607402078</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L40" t="n">
-        <v>1029.13318792779</v>
+        <v>703.9288621655469</v>
       </c>
       <c r="M40" t="n">
-        <v>1165.717281597245</v>
+        <v>1254.048436297824</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.406910713385</v>
+        <v>1786.694636301876</v>
       </c>
       <c r="O40" t="n">
-        <v>1885.145507317012</v>
+        <v>2285.433232905504</v>
       </c>
       <c r="P40" t="n">
-        <v>2298.371582196147</v>
+        <v>2449.745079574047</v>
       </c>
       <c r="Q40" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="R40" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S40" t="n">
-        <v>2510.272196103407</v>
+        <v>2358.165462296849</v>
       </c>
       <c r="T40" t="n">
-        <v>2271.352935667296</v>
+        <v>2119.246201860737</v>
       </c>
       <c r="U40" t="n">
-        <v>1991.224913814468</v>
+        <v>1839.118180007909</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.513446422497</v>
+        <v>1557.406712615938</v>
       </c>
       <c r="W40" t="n">
-        <v>1709.513446422497</v>
+        <v>1384.543101872112</v>
       </c>
       <c r="X40" t="n">
-        <v>1508.55338019672</v>
+        <v>1141.979205317918</v>
       </c>
       <c r="Y40" t="n">
-        <v>1282.210611886462</v>
+        <v>915.6364370076597</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>819.6946837907346</v>
+        <v>1751.49991638651</v>
       </c>
       <c r="C41" t="n">
-        <v>819.6946837907346</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="D41" t="n">
-        <v>819.6946837907346</v>
+        <v>901.3065655848104</v>
       </c>
       <c r="E41" t="n">
-        <v>819.6946837907346</v>
+        <v>475.329625732668</v>
       </c>
       <c r="F41" t="n">
-        <v>726.4881487176426</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G41" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H41" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I41" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J41" t="n">
-        <v>265.8602102853076</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K41" t="n">
-        <v>517.9745679998221</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L41" t="n">
-        <v>836.7412585230809</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M41" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N41" t="n">
         <v>1562.984812457614</v>
@@ -7429,34 +7429,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P41" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q41" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R41" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S41" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T41" t="n">
-        <v>2299.442080053586</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U41" t="n">
-        <v>2041.271667827027</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V41" t="n">
-        <v>2041.271667827027</v>
+        <v>2171.34828067804</v>
       </c>
       <c r="W41" t="n">
-        <v>1644.880318127374</v>
+        <v>2171.34828067804</v>
       </c>
       <c r="X41" t="n">
-        <v>1644.880318127374</v>
+        <v>2171.34828067804</v>
       </c>
       <c r="Y41" t="n">
-        <v>1239.543048082265</v>
+        <v>2171.34828067804</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>184.4841739339245</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H42" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J42" t="n">
-        <v>169.6881981570804</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K42" t="n">
         <v>342.8010428266098</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>622.9574278005744</v>
+        <v>725.4704682955939</v>
       </c>
       <c r="C43" t="n">
-        <v>588.6413930263102</v>
+        <v>553.4979051745099</v>
       </c>
       <c r="D43" t="n">
-        <v>425.3246201530809</v>
+        <v>553.4979051745099</v>
       </c>
       <c r="E43" t="n">
-        <v>425.3246201530809</v>
+        <v>387.2896993273635</v>
       </c>
       <c r="F43" t="n">
-        <v>253.4628459276413</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="G43" t="n">
-        <v>253.4628459276413</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I43" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J43" t="n">
         <v>101.4579413382349</v>
       </c>
       <c r="K43" t="n">
-        <v>198.4999349779649</v>
+        <v>262.3419113406802</v>
       </c>
       <c r="L43" t="n">
-        <v>703.9288621655469</v>
+        <v>767.7708385282622</v>
       </c>
       <c r="M43" t="n">
-        <v>1254.048436297824</v>
+        <v>1317.890412660539</v>
       </c>
       <c r="N43" t="n">
-        <v>1786.694636301876</v>
+        <v>1850.536612664592</v>
       </c>
       <c r="O43" t="n">
-        <v>2285.433232905504</v>
+        <v>2349.275209268219</v>
       </c>
       <c r="P43" t="n">
-        <v>2385.903103211332</v>
+        <v>2449.745079574047</v>
       </c>
       <c r="Q43" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="R43" t="n">
-        <v>2509.747948692049</v>
+        <v>2509.74794869205</v>
       </c>
       <c r="S43" t="n">
-        <v>2357.64121488549</v>
+        <v>2357.641214885491</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.721954449379</v>
+        <v>2118.72195444938</v>
       </c>
       <c r="U43" t="n">
-        <v>1838.593932596551</v>
+        <v>1838.593932596552</v>
       </c>
       <c r="V43" t="n">
-        <v>1556.88246520458</v>
+        <v>1659.395505699599</v>
       </c>
       <c r="W43" t="n">
-        <v>1282.030061377093</v>
+        <v>1384.543101872112</v>
       </c>
       <c r="X43" t="n">
-        <v>1039.466164822898</v>
+        <v>1141.979205317918</v>
       </c>
       <c r="Y43" t="n">
-        <v>813.1233965126401</v>
+        <v>915.6364370076597</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1062.536446884695</v>
+        <v>2153.532764084201</v>
       </c>
       <c r="C44" t="n">
-        <v>1062.536446884695</v>
+        <v>1726.632034097501</v>
       </c>
       <c r="D44" t="n">
-        <v>639.2438260696952</v>
+        <v>1303.339413282501</v>
       </c>
       <c r="E44" t="n">
-        <v>639.2438260696952</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F44" t="n">
-        <v>214.1196442590954</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G44" t="n">
-        <v>214.1196442590954</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H44" t="n">
         <v>50.20544392206816</v>
@@ -7654,7 +7654,7 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L44" t="n">
-        <v>836.7412585230809</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M44" t="n">
         <v>1196.576905080623</v>
@@ -7663,7 +7663,7 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O44" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P44" t="n">
         <v>2194.643812107885</v>
@@ -7684,16 +7684,16 @@
         <v>2299.442080053587</v>
       </c>
       <c r="V44" t="n">
-        <v>2299.442080053587</v>
+        <v>2153.532764084201</v>
       </c>
       <c r="W44" t="n">
-        <v>2299.442080053587</v>
+        <v>2153.532764084201</v>
       </c>
       <c r="X44" t="n">
-        <v>1887.722081221335</v>
+        <v>2153.532764084201</v>
       </c>
       <c r="Y44" t="n">
-        <v>1482.384811176225</v>
+        <v>2153.532764084201</v>
       </c>
     </row>
     <row r="45">
@@ -7709,13 +7709,13 @@
         <v>486.671896462798</v>
       </c>
       <c r="D45" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E45" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F45" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G45" t="n">
         <v>91.66433580662168</v>
@@ -7724,19 +7724,19 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145916</v>
       </c>
       <c r="J45" t="n">
-        <v>169.6881981570805</v>
+        <v>169.6881981570804</v>
       </c>
       <c r="K45" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266098</v>
       </c>
       <c r="L45" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744359</v>
       </c>
       <c r="M45" t="n">
-        <v>866.6631241688301</v>
+        <v>866.6631241688299</v>
       </c>
       <c r="N45" t="n">
         <v>1160.072685361481</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.044643174396</v>
+        <v>623.4816752119327</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0720800533124</v>
+        <v>451.5091120908487</v>
       </c>
       <c r="D46" t="n">
-        <v>756.7553071800832</v>
+        <v>451.5091120908487</v>
       </c>
       <c r="E46" t="n">
-        <v>590.5471013329367</v>
+        <v>451.5091120908487</v>
       </c>
       <c r="F46" t="n">
-        <v>418.6853271074971</v>
+        <v>279.6473378654091</v>
       </c>
       <c r="G46" t="n">
-        <v>253.4628459276414</v>
+        <v>114.4248566855534</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8641208752695</v>
+        <v>114.4248566855534</v>
       </c>
       <c r="I46" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="J46" t="n">
-        <v>179.3796579864558</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K46" t="n">
-        <v>523.7042607402078</v>
+        <v>445.782544091987</v>
       </c>
       <c r="L46" t="n">
-        <v>1029.13318792779</v>
+        <v>574.8225776884041</v>
       </c>
       <c r="M46" t="n">
-        <v>1579.252762060067</v>
+        <v>1124.942151820681</v>
       </c>
       <c r="N46" t="n">
-        <v>1713.866039222239</v>
+        <v>1657.588351824734</v>
       </c>
       <c r="O46" t="n">
-        <v>1885.145507317012</v>
+        <v>2156.326948428361</v>
       </c>
       <c r="P46" t="n">
         <v>2298.371582196148</v>
@@ -7830,28 +7830,28 @@
         <v>2510.272196103408</v>
       </c>
       <c r="R46" t="n">
-        <v>2509.74794869205</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S46" t="n">
-        <v>2357.641214885491</v>
+        <v>2358.165462296849</v>
       </c>
       <c r="T46" t="n">
-        <v>2357.641214885491</v>
+        <v>2119.246201860737</v>
       </c>
       <c r="U46" t="n">
-        <v>2077.513193032663</v>
+        <v>1839.118180007909</v>
       </c>
       <c r="V46" t="n">
-        <v>2025.969680578402</v>
+        <v>1557.406712615938</v>
       </c>
       <c r="W46" t="n">
-        <v>1751.117276750915</v>
+        <v>1282.554308788451</v>
       </c>
       <c r="X46" t="n">
-        <v>1508.55338019672</v>
+        <v>1039.990412234256</v>
       </c>
       <c r="Y46" t="n">
-        <v>1282.210611886462</v>
+        <v>813.6476439239984</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.33477671814256</v>
+        <v>12.07614829188452</v>
       </c>
       <c r="K2" t="n">
-        <v>9.400971500152657</v>
+        <v>8.659599926410685</v>
       </c>
       <c r="L2" t="n">
         <v>4.685892067245952</v>
@@ -7996,10 +7996,10 @@
         <v>1.488812484839848</v>
       </c>
       <c r="P2" t="n">
-        <v>6.933710081199632</v>
+        <v>7.645127247921719</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.82548742571488</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R2" t="n">
         <v>22.38892463924255</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>13.87911890286131</v>
+        <v>14.62049047660328</v>
       </c>
       <c r="K4" t="n">
-        <v>9.859780864477683</v>
+        <v>10.60115243821965</v>
       </c>
       <c r="L4" t="n">
-        <v>8.449716550665098</v>
+        <v>8.449716550665091</v>
       </c>
       <c r="M4" t="n">
-        <v>8.333921380570176</v>
+        <v>7.592549806828204</v>
       </c>
       <c r="N4" t="n">
-        <v>6.863642102491943</v>
+        <v>6.12227052874997</v>
       </c>
       <c r="O4" t="n">
-        <v>9.700544058740659</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P4" t="n">
         <v>10.82060987411565</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.61588587736505</v>
+        <v>17.32730304408714</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7.415995117306384</v>
+        <v>8.03034542826965</v>
       </c>
       <c r="K5" t="n">
-        <v>11.7662998017045</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6143503109632675</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>8.128025379424045</v>
       </c>
       <c r="R5" t="n">
-        <v>18.74720796782874</v>
+        <v>27.72714562344173</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.41484263875958</v>
+        <v>21.39478029437256</v>
       </c>
       <c r="K7" t="n">
-        <v>7.453525154664103</v>
+        <v>16.43346281027709</v>
       </c>
       <c r="L7" t="n">
-        <v>13.60910376882005</v>
+        <v>4.629166113207063</v>
       </c>
       <c r="M7" t="n">
-        <v>12.96309931952361</v>
+        <v>4.345987427773778</v>
       </c>
       <c r="N7" t="n">
-        <v>11.93284180225873</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O7" t="n">
-        <v>15.04164171694442</v>
+        <v>14.67881595308127</v>
       </c>
       <c r="P7" t="n">
         <v>8.315693914541322</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.881611906857</v>
+        <v>23.86154956246998</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.021643902788007</v>
+        <v>3.021643902788004</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.536891551628983</v>
+        <v>2.536891551628976</v>
       </c>
       <c r="R8" t="n">
         <v>15.49488714450009</v>
@@ -8531,7 +8531,7 @@
         <v>10.44271547525859</v>
       </c>
       <c r="J9" t="n">
-        <v>4.888458418784966</v>
+        <v>4.888458418784962</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.504190801070983</v>
+        <v>1.50419080107098</v>
       </c>
       <c r="R9" t="n">
         <v>13.34053384443212</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.99117420462824</v>
+        <v>10.77286693432814</v>
       </c>
       <c r="K10" t="n">
-        <v>22.97356194757785</v>
+        <v>22.97356194757786</v>
       </c>
       <c r="L10" t="n">
-        <v>18.05743748919022</v>
+        <v>19.39461615446363</v>
       </c>
       <c r="M10" t="n">
-        <v>18.92374087635456</v>
+        <v>18.92374087635457</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2.779019446119925</v>
+        <v>2.779019446119921</v>
       </c>
       <c r="P10" t="n">
-        <v>5.506790124936625</v>
+        <v>5.506790124936622</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.9368725197517</v>
+        <v>29.8180011247784</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.09423510136525</v>
       </c>
       <c r="J12" t="n">
-        <v>35.86282740847991</v>
+        <v>166.5677321878735</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.7991398807592</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>65.88739358415972</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>153.4125802739566</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>150.8206010606389</v>
+        <v>140.9194513007279</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>150.4923189228545</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>149.4526276816774</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>294.209622145106</v>
+        <v>124.9149788025378</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>319.9348149821285</v>
+        <v>319.9348149821283</v>
       </c>
       <c r="N16" t="n">
-        <v>320.7641352828257</v>
+        <v>288.3140771803031</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>217.3303551439651</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>131.3248032493611</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>234.1036094826144</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9324,22 +9324,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>329.0758190101172</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M19" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017981</v>
+        <v>124.0536869222924</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>131.3248032493603</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>234.1036094826144</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9564,22 +9564,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>360.0219516362447</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>147.8754625841163</v>
       </c>
       <c r="O22" t="n">
-        <v>45.3448822271198</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9804,10 +9804,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>86.94581005451215</v>
       </c>
       <c r="N25" t="n">
-        <v>86.94581005451232</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
@@ -10041,13 +10041,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>50.7507028225742</v>
+        <v>86.94581005451278</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
@@ -10275,19 +10275,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>344.8034051686279</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8077107933279848</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10515,13 +10515,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>86.94581005451215</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>50.7507028225742</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>64.48684481082346</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10755,16 +10755,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>50.75070282257374</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>86.94581005451232</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>64.48684481082338</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>64.48684481082346</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.48684481082238</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>50.75070282257465</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>41.99471056763502</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -22549,7 +22549,7 @@
         <v>414.9085090748728</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>421.8903511130909</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>97.72661283000387</v>
+        <v>97.81498432159393</v>
       </c>
       <c r="T2" t="n">
-        <v>217.0421713182576</v>
+        <v>217.7835428919996</v>
       </c>
       <c r="U2" t="n">
-        <v>255.1013135595975</v>
+        <v>255.7543136417494</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -22612,7 +22612,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>406.8614272701882</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>78.39332586788025</v>
+        <v>77.65195429413828</v>
       </c>
       <c r="T3" t="n">
         <v>140.0015974811513</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9130134852156</v>
+        <v>182.1716419114736</v>
       </c>
       <c r="V3" t="n">
         <v>202.1820358983844</v>
       </c>
       <c r="W3" t="n">
-        <v>193.814791821373</v>
+        <v>193.903163312963</v>
       </c>
       <c r="X3" t="n">
-        <v>161.1012011972617</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>137.6429596780886</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.522937451203</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>169.5114659161312</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>161.0306050623451</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -22752,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>41.61751936926755</v>
+        <v>42.27051945141948</v>
       </c>
       <c r="S4" t="n">
-        <v>166.7679659678213</v>
+        <v>166.0265943940794</v>
       </c>
       <c r="T4" t="n">
-        <v>240.4975591017995</v>
+        <v>239.7561875280576</v>
       </c>
       <c r="U4" t="n">
         <v>277.3773904590235</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>278.1529811443094</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -22773,7 +22773,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>223.3379690534134</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22795,10 +22795,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>411.8930023368807</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>391.0564788915124</v>
+        <v>400.0364165471253</v>
       </c>
       <c r="H5" t="n">
         <v>292.2345970210142</v>
@@ -22837,19 +22837,19 @@
         <v>88.43590476396162</v>
       </c>
       <c r="T5" t="n">
-        <v>209.6718963486237</v>
+        <v>217.5814254356876</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7506198904062</v>
+        <v>246.7706822347932</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>344.9345830694</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>399.6932697568663</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.6578016702491</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>107.3509067920573</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>94.67497673417915</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>83.72943435831189</v>
       </c>
       <c r="G6" t="n">
         <v>92.97452028251483</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>77.93445730202359</v>
+        <v>68.9545196464106</v>
       </c>
       <c r="T6" t="n">
         <v>139.902022460603</v>
@@ -22922,16 +22922,16 @@
         <v>182.9113882128454</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>195.0138783850625</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>153.9330436839398</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>129.3160221046275</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -22950,7 +22950,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>156.6365947016111</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -22959,7 +22959,7 @@
         <v>164.4781070335314</v>
       </c>
       <c r="H7" t="n">
-        <v>141.3243555367009</v>
+        <v>132.344417881088</v>
       </c>
       <c r="I7" t="n">
         <v>95.27363565084021</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>41.33927213211291</v>
+        <v>32.35933447649992</v>
       </c>
       <c r="S7" t="n">
         <v>166.4070276113493</v>
@@ -22998,16 +22998,16 @@
         <v>240.4090661296859</v>
       </c>
       <c r="U7" t="n">
-        <v>268.3963231058942</v>
+        <v>277.3762607615072</v>
       </c>
       <c r="V7" t="n">
         <v>269.9144150624384</v>
       </c>
       <c r="W7" t="n">
-        <v>263.1239421335991</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>232.228728501589</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -23032,10 +23032,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>402.6546327221936</v>
       </c>
       <c r="G8" t="n">
-        <v>399.9846413962156</v>
+        <v>383.9379563525353</v>
       </c>
       <c r="H8" t="n">
         <v>291.7043547567607</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>96.23601616822083</v>
+        <v>78.01770889792071</v>
       </c>
       <c r="T8" t="n">
         <v>217.3547797125806</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7464778783334</v>
+        <v>237.5281706080333</v>
       </c>
       <c r="V8" t="n">
-        <v>335.6962134547129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>374.2091289323565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>389.3844915736301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>385.2372123009782</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>111.5910542821817</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
-        <v>84.58325162956771</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
-        <v>74.49106474362478</v>
+        <v>74.49106474362476</v>
       </c>
       <c r="G9" t="n">
-        <v>92.94681813455406</v>
+        <v>74.72851086425395</v>
       </c>
       <c r="H9" t="n">
-        <v>33.0167975003662</v>
+        <v>51.2351047706663</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23153,13 +23153,13 @@
         <v>77.41990205371728</v>
       </c>
       <c r="T9" t="n">
-        <v>139.7903633642173</v>
+        <v>123.7436783205369</v>
       </c>
       <c r="U9" t="n">
         <v>182.9095657031111</v>
       </c>
       <c r="V9" t="n">
-        <v>202.9234074721264</v>
+        <v>184.7051002018263</v>
       </c>
       <c r="W9" t="n">
         <v>194.556163395115</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.2176239812647</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -23232,10 +23232,10 @@
         <v>166.0022870397414</v>
       </c>
       <c r="T10" t="n">
-        <v>240.3098339603297</v>
+        <v>224.2631489166494</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3749939678559</v>
+        <v>259.1566866975558</v>
       </c>
       <c r="V10" t="n">
         <v>260.6760454477513</v>
@@ -23244,7 +23244,7 @@
         <v>253.885572518912</v>
       </c>
       <c r="X10" t="n">
-        <v>221.9199503183528</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>247.1916007807698</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>231.3757282864638</v>
+        <v>231.3757282864639</v>
       </c>
       <c r="D11" t="n">
-        <v>227.8037002064806</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>230.461176053252</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>229.6169455921248</v>
       </c>
       <c r="G11" t="n">
         <v>399.3995456585952</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>210.0279029442895</v>
+        <v>232.8256174768136</v>
       </c>
     </row>
     <row r="12">
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
-        <v>92.70937201392488</v>
+        <v>82.7735796440958</v>
       </c>
       <c r="G12" t="n">
         <v>92.63376431607153</v>
@@ -23387,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>71.60506467971084</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>138.5285367888426</v>
       </c>
       <c r="U12" t="n">
-        <v>24.20057238530881</v>
+        <v>182.8889700571583</v>
       </c>
       <c r="V12" t="n">
-        <v>202.9234074721264</v>
+        <v>11.66741307175744</v>
       </c>
       <c r="W12" t="n">
-        <v>3.300168994745917</v>
+        <v>3.300168994746002</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>119.4661349532764</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>81.17902221144676</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.1924286780001</v>
@@ -23466,7 +23466,7 @@
         <v>28.49413443704394</v>
       </c>
       <c r="S13" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.1884404287796</v>
@@ -23475,7 +23475,7 @@
         <v>277.3606783057509</v>
       </c>
       <c r="V13" t="n">
-        <v>87.63835831768233</v>
+        <v>87.63835831768242</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -23484,7 +23484,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.82334622678633</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>13.57727327537117</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23509,10 +23509,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.7071691541473</v>
+        <v>245.5333306422928</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>278.6214421576782</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.12561745208825</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.7626449729264</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.644280098968</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>100.7519707522443</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>37.91801257263987</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>92.26331022692287</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>44.63385734696503</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>64.72404245363788</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>65.45728034592595</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>63.6182077441495</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23664,16 +23664,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8818524140173</v>
+        <v>37.20035506234697</v>
       </c>
       <c r="H16" t="n">
-        <v>136.0231099195664</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>77.34263309308859</v>
+        <v>77.34263309308861</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>14.52949624014211</v>
+        <v>14.52949624014212</v>
       </c>
       <c r="S16" t="n">
-        <v>156.0159357421807</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.8614327553983</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>305.5665557835607</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>277.176001558223</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>179.0852660709861</v>
       </c>
       <c r="U17" t="n">
         <v>255.632988972596</v>
@@ -23797,7 +23797,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>105.7985308695635</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>52.47797479055163</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>369.4759664581472</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>222.6956473936147</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24034,7 +24034,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>52.58765579724006</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>49.45041409211201</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>127.0571357172126</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>180.1745636643566</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>139.1424817075292</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>112.5858487660724</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>338.5926655494699</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>329.2543180194301</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>28.72220706281357</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>187.0696015857837</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24688,10 +24688,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>338.5926655494699</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>304.8892512919438</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>138.6234767702849</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>227.8662753883325</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.7680281907437</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>12.08651962757165</v>
       </c>
     </row>
     <row r="33">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5702563680571</v>
+        <v>159.8941852046637</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>60.68782926337352</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>68.84476561182123</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>99.0938723196619</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>124.3203732472015</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>227.8662753883333</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>114.9179883619186</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25450,16 +25450,16 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>149.7694781870623</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S40" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>100.9689051528246</v>
       </c>
       <c r="X40" t="n">
-        <v>41.18779202513377</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>328.5984702701326</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>325.2648346521697</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>136.2799630633516</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>101.4879100900685</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>109.2323001932477</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>209.4642979153207</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.394871547818916</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8662753883326</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>57485.86067315801</v>
+        <v>57485.86067315799</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>63267.02116584649</v>
+        <v>63267.02116584651</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>209105.5458917711</v>
+        <v>209105.545891771</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>383047.3608572047</v>
+        <v>383047.3608572044</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>418504.9298518006</v>
+        <v>418504.9298518008</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508649.1115292478</v>
+        <v>508649.1115292477</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>508649.1115292477</v>
+        <v>508649.1115292478</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>508649.1115292475</v>
+        <v>508649.1115292477</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>508649.1115292475</v>
+        <v>508649.1115292478</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>508649.1115292477</v>
+        <v>508649.1115292478</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>508649.1115292476</v>
+        <v>508649.1115292479</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>508649.1115292478</v>
+        <v>508649.111529248</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>18631.62562050749</v>
       </c>
       <c r="C2" t="n">
-        <v>20899.18594657815</v>
+        <v>20899.18594657816</v>
       </c>
       <c r="D2" t="n">
-        <v>23441.92945408472</v>
+        <v>23441.92945408473</v>
       </c>
       <c r="E2" t="n">
-        <v>69677.15321417569</v>
+        <v>69677.15321417566</v>
       </c>
       <c r="F2" t="n">
         <v>126756.8187890491</v>
       </c>
       <c r="G2" t="n">
-        <v>138392.3543887653</v>
+        <v>138392.3543887654</v>
       </c>
       <c r="H2" t="n">
-        <v>138392.3543887653</v>
+        <v>138392.3543887654</v>
       </c>
       <c r="I2" t="n">
         <v>170943.0440684961</v>
       </c>
       <c r="J2" t="n">
-        <v>170943.044068496</v>
+        <v>170943.0440684961</v>
       </c>
       <c r="K2" t="n">
         <v>170943.0440684962</v>
@@ -26346,13 +26346,13 @@
         <v>170943.0440684961</v>
       </c>
       <c r="M2" t="n">
-        <v>170943.044068496</v>
+        <v>170943.0440684962</v>
       </c>
       <c r="N2" t="n">
-        <v>170943.0440684962</v>
+        <v>170943.0440684961</v>
       </c>
       <c r="O2" t="n">
-        <v>170943.0440684962</v>
+        <v>170943.0440684961</v>
       </c>
       <c r="P2" t="n">
         <v>170943.0440684961</v>
@@ -26368,19 +26368,19 @@
         <v>51324.25925211475</v>
       </c>
       <c r="C3" t="n">
-        <v>13120.13817647191</v>
+        <v>13120.13817647192</v>
       </c>
       <c r="D3" t="n">
-        <v>13899.52957108176</v>
+        <v>13899.52957108177</v>
       </c>
       <c r="E3" t="n">
         <v>168594.5796821893</v>
       </c>
       <c r="F3" t="n">
-        <v>198542.1997025048</v>
+        <v>198542.1997025046</v>
       </c>
       <c r="G3" t="n">
-        <v>39465.00613325149</v>
+        <v>39465.00613325181</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>149943.9606600748</v>
       </c>
       <c r="J3" t="n">
-        <v>193.9754240401408</v>
+        <v>193.9754240401706</v>
       </c>
       <c r="K3" t="n">
-        <v>2120.343275359005</v>
+        <v>2120.343275358975</v>
       </c>
       <c r="L3" t="n">
-        <v>2338.148204150747</v>
+        <v>2338.148204150751</v>
       </c>
       <c r="M3" t="n">
-        <v>43121.68378356168</v>
+        <v>43121.68378356172</v>
       </c>
       <c r="N3" t="n">
-        <v>53344.72219050197</v>
+        <v>53344.7221905019</v>
       </c>
       <c r="O3" t="n">
-        <v>10684.33323132198</v>
+        <v>10684.33323132209</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>2115.556853586435</v>
       </c>
       <c r="E4" t="n">
-        <v>7981.84008725625</v>
+        <v>7981.840087256243</v>
       </c>
       <c r="F4" t="n">
-        <v>17215.70765220475</v>
+        <v>17215.70765220473</v>
       </c>
       <c r="G4" t="n">
         <v>19098.00660565761</v>
       </c>
       <c r="H4" t="n">
-        <v>19098.00660565759</v>
+        <v>19098.00660565761</v>
       </c>
       <c r="I4" t="n">
+        <v>15313.35928232698</v>
+      </c>
+      <c r="J4" t="n">
         <v>15313.35928232699</v>
       </c>
-      <c r="J4" t="n">
-        <v>15313.35928232698</v>
-      </c>
       <c r="K4" t="n">
-        <v>15313.35928232698</v>
+        <v>15313.35928232699</v>
       </c>
       <c r="L4" t="n">
         <v>15313.35928232698</v>
       </c>
       <c r="M4" t="n">
-        <v>15313.35928232698</v>
+        <v>15313.35928232699</v>
       </c>
       <c r="N4" t="n">
         <v>15313.35928232699</v>
       </c>
       <c r="O4" t="n">
+        <v>15313.35928232699</v>
+      </c>
+      <c r="P4" t="n">
         <v>15313.35928232698</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15313.35928232699</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>16487.83241934473</v>
       </c>
       <c r="F5" t="n">
-        <v>33484.56317351374</v>
+        <v>33484.56317351371</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304155</v>
@@ -26493,7 +26493,7 @@
         <v>50537.10295659396</v>
       </c>
       <c r="J5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="K5" t="n">
         <v>50537.10295659397</v>
@@ -26502,13 +26502,13 @@
         <v>50537.10295659396</v>
       </c>
       <c r="M5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="N5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="O5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="P5" t="n">
         <v>50537.10295659397</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71182.61406373017</v>
+        <v>-72535.21170253304</v>
       </c>
       <c r="C6" t="n">
-        <v>-30699.79085287847</v>
+        <v>-32039.79093431427</v>
       </c>
       <c r="D6" t="n">
-        <v>-28995.07010123841</v>
+        <v>-30320.94382985475</v>
       </c>
       <c r="E6" t="n">
-        <v>-123387.0989746145</v>
+        <v>-124456.1103490082</v>
       </c>
       <c r="F6" t="n">
-        <v>-122485.6517391742</v>
+        <v>-123237.5538603738</v>
       </c>
       <c r="G6" t="n">
-        <v>42880.04083681467</v>
+        <v>42192.78058005742</v>
       </c>
       <c r="H6" t="n">
-        <v>82345.04697006612</v>
+        <v>81657.78671330924</v>
       </c>
       <c r="I6" t="n">
-        <v>-44851.3788304996</v>
+        <v>-45357.80192236925</v>
       </c>
       <c r="J6" t="n">
-        <v>104898.606405535</v>
+        <v>104392.1833136654</v>
       </c>
       <c r="K6" t="n">
-        <v>102972.2385542162</v>
+        <v>102465.8154623466</v>
       </c>
       <c r="L6" t="n">
-        <v>102754.4336254244</v>
+        <v>102248.0105335548</v>
       </c>
       <c r="M6" t="n">
-        <v>61970.8980460134</v>
+        <v>61464.47495414388</v>
       </c>
       <c r="N6" t="n">
-        <v>51747.85963907324</v>
+        <v>51241.43654720364</v>
       </c>
       <c r="O6" t="n">
-        <v>94408.24859825325</v>
+        <v>93901.82550638341</v>
       </c>
       <c r="P6" t="n">
-        <v>105092.5818295751</v>
+        <v>104586.1587377056</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>64.4897407809798</v>
       </c>
       <c r="D3" t="n">
-        <v>77.36880956975661</v>
+        <v>77.36880956975662</v>
       </c>
       <c r="E3" t="n">
         <v>222.9113743028576</v>
       </c>
       <c r="F3" t="n">
-        <v>395.1400297842591</v>
+        <v>395.1400297842589</v>
       </c>
       <c r="G3" t="n">
         <v>430.248375846946</v>
       </c>
       <c r="H3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="I3" t="n">
         <v>567.9342007257877</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="C4" t="n">
         <v>8.979937655612986</v>
       </c>
       <c r="D4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="E4" t="n">
         <v>191.255994400369</v>
       </c>
       <c r="F4" t="n">
-        <v>409.054449411462</v>
+        <v>409.0544494114617</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
         <v>627.5680490258518</v>
       </c>
       <c r="J4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="K4" t="n">
         <v>627.5680490258519</v>
@@ -26822,13 +26822,13 @@
         <v>627.5680490258518</v>
       </c>
       <c r="M4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="N4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="O4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="P4" t="n">
         <v>627.5680490258519</v>
@@ -26965,22 +26965,22 @@
         <v>11.48525808283478</v>
       </c>
       <c r="D3" t="n">
-        <v>12.87906878877681</v>
+        <v>12.87906878877682</v>
       </c>
       <c r="E3" t="n">
         <v>145.542564733101</v>
       </c>
       <c r="F3" t="n">
-        <v>172.2286554814015</v>
+        <v>172.2286554814013</v>
       </c>
       <c r="G3" t="n">
-        <v>35.10834606268685</v>
+        <v>35.10834606268713</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>137.6858248788416</v>
+        <v>137.6858248788417</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="C4" t="n">
-        <v>8.238566081871014</v>
+        <v>8.238566081871021</v>
       </c>
       <c r="D4" t="n">
-        <v>9.238369614687109</v>
+        <v>9.238369614687127</v>
       </c>
       <c r="E4" t="n">
         <v>173.0376871300689</v>
       </c>
       <c r="F4" t="n">
-        <v>217.7984550110929</v>
+        <v>217.7984550110927</v>
       </c>
       <c r="G4" t="n">
-        <v>44.39762656844147</v>
+        <v>44.39762656844181</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>174.1159730459484</v>
+        <v>174.1159730459483</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7413715737419579</v>
+        <v>0.7413715737420716</v>
       </c>
       <c r="K4" t="n">
-        <v>8.238566081871113</v>
+        <v>8.238566081870999</v>
       </c>
       <c r="L4" t="n">
-        <v>9.238369614686995</v>
+        <v>9.238369614687013</v>
       </c>
       <c r="M4" t="n">
-        <v>173.0376871300688</v>
+        <v>173.037687130069</v>
       </c>
       <c r="N4" t="n">
-        <v>217.798455011093</v>
+        <v>217.7984550110927</v>
       </c>
       <c r="O4" t="n">
-        <v>44.39762656844135</v>
+        <v>44.39762656844181</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="K4" t="n">
-        <v>8.238566081871014</v>
+        <v>8.238566081871021</v>
       </c>
       <c r="L4" t="n">
-        <v>9.238369614687109</v>
+        <v>9.238369614687127</v>
       </c>
       <c r="M4" t="n">
         <v>173.0376871300689</v>
       </c>
       <c r="N4" t="n">
-        <v>217.7984550110929</v>
+        <v>217.7984550110927</v>
       </c>
       <c r="O4" t="n">
-        <v>44.39762656844147</v>
+        <v>44.39762656844181</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31135,13 +31135,13 @@
         <v>18.4100569763925</v>
       </c>
       <c r="L3" t="n">
-        <v>23.25645828797153</v>
+        <v>23.25645828797152</v>
       </c>
       <c r="M3" t="n">
-        <v>23.80819767905007</v>
+        <v>23.83815208606994</v>
       </c>
       <c r="N3" t="n">
-        <v>22.08439978728364</v>
+        <v>22.05444538026375</v>
       </c>
       <c r="O3" t="n">
         <v>23.91326129596419</v>
@@ -31378,10 +31378,10 @@
         <v>32.07671816794097</v>
       </c>
       <c r="N6" t="n">
-        <v>30.32296586915465</v>
+        <v>26.61922311878625</v>
       </c>
       <c r="O6" t="n">
-        <v>28.44808462746681</v>
+        <v>32.1518273778352</v>
       </c>
       <c r="P6" t="n">
         <v>26.48824843511603</v>
@@ -31521,43 +31521,43 @@
         <v>3.185339983944802</v>
       </c>
       <c r="I8" t="n">
-        <v>11.99099911934891</v>
+        <v>11.99099911934892</v>
       </c>
       <c r="J8" t="n">
         <v>26.39831558279852</v>
       </c>
       <c r="K8" t="n">
-        <v>39.56423200124192</v>
+        <v>39.56423200124193</v>
       </c>
       <c r="L8" t="n">
-        <v>49.08292830624871</v>
+        <v>49.08292830624872</v>
       </c>
       <c r="M8" t="n">
-        <v>54.61421500850462</v>
+        <v>54.61421500850463</v>
       </c>
       <c r="N8" t="n">
         <v>55.49793010474612</v>
       </c>
       <c r="O8" t="n">
-        <v>52.40512166189479</v>
+        <v>52.4051216618948</v>
       </c>
       <c r="P8" t="n">
         <v>44.72655890308729</v>
       </c>
       <c r="Q8" t="n">
-        <v>33.58778305296906</v>
+        <v>33.58778305296907</v>
       </c>
       <c r="R8" t="n">
         <v>19.53776275029638</v>
       </c>
       <c r="S8" t="n">
-        <v>7.087605017370167</v>
+        <v>7.087605017370168</v>
       </c>
       <c r="T8" t="n">
         <v>1.361535533232601</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02488243121841416</v>
+        <v>0.02488243121841417</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.166415930017967</v>
+        <v>0.1664159300179671</v>
       </c>
       <c r="H9" t="n">
-        <v>1.607227534647208</v>
+        <v>1.607227534647209</v>
       </c>
       <c r="I9" t="n">
-        <v>5.72967127474141</v>
+        <v>5.729671274741411</v>
       </c>
       <c r="J9" t="n">
         <v>15.72265591454837</v>
@@ -31609,31 +31609,31 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>36.13342375236605</v>
+        <v>36.13342375236606</v>
       </c>
       <c r="M9" t="n">
-        <v>36.96727616099975</v>
+        <v>41.31508778262809</v>
       </c>
       <c r="N9" t="n">
-        <v>39.56133548384176</v>
+        <v>35.21352386221347</v>
       </c>
       <c r="O9" t="n">
-        <v>39.5945831389678</v>
+        <v>39.59458313896781</v>
       </c>
       <c r="P9" t="n">
         <v>31.77814368913268</v>
       </c>
       <c r="Q9" t="n">
-        <v>21.24284748790751</v>
+        <v>21.24284748790752</v>
       </c>
       <c r="R9" t="n">
         <v>10.33238554971203</v>
       </c>
       <c r="S9" t="n">
-        <v>3.091102910640745</v>
+        <v>3.091102910640746</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6707729810811914</v>
+        <v>0.6707729810811917</v>
       </c>
       <c r="U9" t="n">
         <v>0.01094841644855047</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1395175254536594</v>
+        <v>0.1395175254536595</v>
       </c>
       <c r="H10" t="n">
         <v>1.240437635397082</v>
       </c>
       <c r="I10" t="n">
-        <v>4.195672492733687</v>
+        <v>4.195672492733688</v>
       </c>
       <c r="J10" t="n">
-        <v>9.863889049573721</v>
+        <v>9.863889049573723</v>
       </c>
       <c r="K10" t="n">
         <v>16.20939977543425</v>
@@ -31694,7 +31694,7 @@
         <v>21.87000628543136</v>
       </c>
       <c r="N10" t="n">
-        <v>21.34998641783137</v>
+        <v>21.34998641783138</v>
       </c>
       <c r="O10" t="n">
         <v>19.72016805230453</v>
@@ -31706,16 +31706,16 @@
         <v>11.68269024503325</v>
       </c>
       <c r="R10" t="n">
-        <v>6.273215280852722</v>
+        <v>6.273215280852723</v>
       </c>
       <c r="S10" t="n">
         <v>2.431409966315137</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5961203360292719</v>
+        <v>0.5961203360292721</v>
       </c>
       <c r="U10" t="n">
-        <v>0.007610046842926888</v>
+        <v>0.007610046842926889</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.588502632298528</v>
+        <v>1.588502632298527</v>
       </c>
       <c r="H14" t="n">
-        <v>16.26825258302731</v>
+        <v>16.26825258302729</v>
       </c>
       <c r="I14" t="n">
-        <v>61.24074773168905</v>
+        <v>61.24074773168903</v>
       </c>
       <c r="J14" t="n">
-        <v>134.8221752880473</v>
+        <v>134.8221752880472</v>
       </c>
       <c r="K14" t="n">
-        <v>202.063491713244</v>
+        <v>202.0634917132439</v>
       </c>
       <c r="L14" t="n">
-        <v>250.6776291464502</v>
+        <v>250.67762914645</v>
       </c>
       <c r="M14" t="n">
-        <v>278.9271628335891</v>
+        <v>278.927162833589</v>
       </c>
       <c r="N14" t="n">
-        <v>283.4404959376073</v>
+        <v>283.4404959376072</v>
       </c>
       <c r="O14" t="n">
-        <v>267.6448228876888</v>
+        <v>267.6448228876886</v>
       </c>
       <c r="P14" t="n">
-        <v>228.4286641528189</v>
+        <v>228.4286641528187</v>
       </c>
       <c r="Q14" t="n">
-        <v>171.5404136336278</v>
+        <v>171.5404136336277</v>
       </c>
       <c r="R14" t="n">
-        <v>99.78377847612249</v>
+        <v>99.78377847612244</v>
       </c>
       <c r="S14" t="n">
-        <v>36.19800373350274</v>
+        <v>36.19800373350272</v>
       </c>
       <c r="T14" t="n">
-        <v>6.95367027288681</v>
+        <v>6.953670272886805</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1270802105838822</v>
+        <v>0.1270802105838821</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8499238376491611</v>
+        <v>0.8499238376491607</v>
       </c>
       <c r="H15" t="n">
-        <v>8.208474958348479</v>
+        <v>8.208474958348473</v>
       </c>
       <c r="I15" t="n">
-        <v>29.26272862081542</v>
+        <v>29.26272862081541</v>
       </c>
       <c r="J15" t="n">
-        <v>80.29916397719555</v>
+        <v>80.29916397719549</v>
       </c>
       <c r="K15" t="n">
-        <v>137.2440610996893</v>
+        <v>137.2440610996892</v>
       </c>
       <c r="L15" t="n">
-        <v>184.5415771176392</v>
+        <v>184.541577117639</v>
       </c>
       <c r="M15" t="n">
-        <v>215.3513162324212</v>
+        <v>215.3513162324211</v>
       </c>
       <c r="N15" t="n">
-        <v>221.0510247752527</v>
+        <v>221.0510247752526</v>
       </c>
       <c r="O15" t="n">
-        <v>202.2185018462897</v>
+        <v>202.2185018462895</v>
       </c>
       <c r="P15" t="n">
-        <v>162.2981756296894</v>
+        <v>162.2981756296893</v>
       </c>
       <c r="Q15" t="n">
         <v>108.4920323286894</v>
       </c>
       <c r="R15" t="n">
-        <v>52.76983265684881</v>
+        <v>52.76983265684878</v>
       </c>
       <c r="S15" t="n">
-        <v>15.78696251072015</v>
+        <v>15.78696251072014</v>
       </c>
       <c r="T15" t="n">
-        <v>3.425789503506925</v>
+        <v>3.425789503506923</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05591604195060273</v>
+        <v>0.0559160419506027</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7125475946929262</v>
+        <v>0.7125475946929258</v>
       </c>
       <c r="H16" t="n">
-        <v>6.335195887360749</v>
+        <v>6.335195887360745</v>
       </c>
       <c r="I16" t="n">
-        <v>21.42824948403819</v>
+        <v>21.42824948403818</v>
       </c>
       <c r="J16" t="n">
-        <v>50.37711494478988</v>
+        <v>50.37711494478985</v>
       </c>
       <c r="K16" t="n">
-        <v>82.78507509250541</v>
+        <v>82.78507509250537</v>
       </c>
       <c r="L16" t="n">
-        <v>105.9363942146193</v>
+        <v>105.9363942146192</v>
       </c>
       <c r="M16" t="n">
         <v>111.6950743208193</v>
       </c>
       <c r="N16" t="n">
-        <v>109.0392151042367</v>
+        <v>109.0392151042366</v>
       </c>
       <c r="O16" t="n">
-        <v>100.715363657142</v>
+        <v>100.7153636571419</v>
       </c>
       <c r="P16" t="n">
-        <v>86.17939272540625</v>
+        <v>86.17939272540619</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.66614449742313</v>
+        <v>59.66614449742309</v>
       </c>
       <c r="R16" t="n">
-        <v>32.03873093955647</v>
+        <v>32.03873093955646</v>
       </c>
       <c r="S16" t="n">
-        <v>12.41776126387581</v>
+        <v>12.4177612638758</v>
       </c>
       <c r="T16" t="n">
-        <v>3.044521540960684</v>
+        <v>3.044521540960682</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03886623243779602</v>
+        <v>0.038866232437796</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I17" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J17" t="n">
         <v>146.801178249406</v>
@@ -32244,7 +32244,7 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M17" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N17" t="n">
         <v>308.6242947670762</v>
@@ -32253,7 +32253,7 @@
         <v>291.425169993898</v>
       </c>
       <c r="P17" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7818464210729</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H18" t="n">
         <v>8.937801166179012</v>
@@ -32314,7 +32314,7 @@
         <v>31.86273349432572</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32329,22 +32329,22 @@
         <v>240.6914947108307</v>
       </c>
       <c r="O18" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P18" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T18" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
         <v>0.06088420412928484</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677269</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I19" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J19" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
         <v>90.14056136596669</v>
@@ -32411,7 +32411,7 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q19" t="n">
         <v>64.96750475288884</v>
@@ -32426,7 +32426,7 @@
         <v>3.315028469640402</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H20" t="n">
         <v>17.71369318248255</v>
@@ -32487,7 +32487,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P20" t="n">
         <v>248.7246402301936</v>
@@ -32502,7 +32502,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
@@ -32560,7 +32560,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N21" t="n">
         <v>240.6914947108307</v>
@@ -32575,7 +32575,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
@@ -32584,7 +32584,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I22" t="n">
         <v>23.332157824618</v>
@@ -32633,7 +32633,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L22" t="n">
         <v>115.3488842393599</v>
@@ -32648,10 +32648,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R22" t="n">
         <v>34.88538470391794</v>
@@ -32660,10 +32660,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7413715737419722</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.7114171667220875</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7114171667220945</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7114171667220944</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.7114171667220875</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7413715737419722</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7413715737419722</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7413715737419722</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7114171667220948</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.7114171667220875</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6143503109632654</v>
       </c>
       <c r="K5" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3.214729057413591</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M5" t="n">
         <v>8.091688641907758</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>8.979937655612986</v>
       </c>
       <c r="N6" t="n">
+        <v>5.276194905244587</v>
+      </c>
+      <c r="O6" t="n">
         <v>8.979937655612986</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5.276194905244587</v>
       </c>
       <c r="P6" t="n">
         <v>4.717407230287364</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8.617111891749836</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>8.979937655612986</v>
-      </c>
-      <c r="M7" t="n">
-        <v>8.617111891749834</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.979937655612986</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8.979937655612986</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3.799631206432579</v>
+        <v>3.799631206432586</v>
       </c>
       <c r="L8" t="n">
         <v>10.77088587362579</v>
       </c>
       <c r="M8" t="n">
-        <v>17.18295210907281</v>
+        <v>17.18295210907282</v>
       </c>
       <c r="N8" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O8" t="n">
-        <v>15.01416230587069</v>
+        <v>15.0141623058707</v>
       </c>
       <c r="P8" t="n">
-        <v>7.151197092855988</v>
+        <v>7.151197092855995</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>13.61833703813649</v>
+        <v>13.6183370381365</v>
       </c>
       <c r="M9" t="n">
-        <v>13.87049564867178</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="N9" t="n">
-        <v>18.21830727030009</v>
+        <v>13.8704956486718</v>
       </c>
       <c r="O9" t="n">
         <v>16.42269341674558</v>
       </c>
       <c r="P9" t="n">
-        <v>10.00730248430401</v>
+        <v>10.00730248430402</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="L10" t="n">
+        <v>18.21830727030011</v>
+      </c>
+      <c r="M10" t="n">
+        <v>18.21830727030011</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6010854422309855</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>16.8811286050267</v>
-      </c>
-      <c r="M10" t="n">
-        <v>18.21830727030009</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.6010854422309819</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3356725733720047</v>
+        <v>22.42990767473725</v>
       </c>
       <c r="J12" t="n">
-        <v>60.55108962097542</v>
+        <v>191.255994400369</v>
       </c>
       <c r="K12" t="n">
         <v>55.02461586202807</v>
@@ -35509,7 +35509,7 @@
         <v>69.78685138383</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.255994400369</v>
+        <v>38.45685451960989</v>
       </c>
       <c r="R12" t="n">
         <v>6.096263762754479</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.782617097300157</v>
+        <v>86.49142179247275</v>
       </c>
       <c r="K13" t="n">
-        <v>91.6244991903087</v>
+        <v>25.73710560614898</v>
       </c>
       <c r="L13" t="n">
+        <v>37.84341412641245</v>
+      </c>
+      <c r="M13" t="n">
+        <v>181.3548446404581</v>
+      </c>
+      <c r="N13" t="n">
         <v>191.255994400369</v>
-      </c>
-      <c r="M13" t="n">
-        <v>191.255994400369</v>
-      </c>
-      <c r="N13" t="n">
-        <v>40.76367547751444</v>
       </c>
       <c r="O13" t="n">
         <v>34.3176329550318</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>26.69284518772555</v>
+        <v>26.69284518772552</v>
       </c>
       <c r="J14" t="n">
-        <v>105.4022158024608</v>
+        <v>105.4022158024607</v>
       </c>
       <c r="K14" t="n">
-        <v>166.2988909184347</v>
+        <v>166.2988909184346</v>
       </c>
       <c r="L14" t="n">
-        <v>212.3655867138272</v>
+        <v>212.3655867138271</v>
       </c>
       <c r="M14" t="n">
-        <v>241.4958999341573</v>
+        <v>241.4958999341571</v>
       </c>
       <c r="N14" t="n">
-        <v>246.1608731031613</v>
+        <v>246.1608731031612</v>
       </c>
       <c r="O14" t="n">
-        <v>230.2538635316647</v>
+        <v>230.2538635316645</v>
       </c>
       <c r="P14" t="n">
-        <v>190.8533023425876</v>
+        <v>190.8533023425874</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.4157390290297</v>
+        <v>135.4157390290296</v>
       </c>
       <c r="R14" t="n">
-        <v>64.75112858132601</v>
+        <v>64.75112858132596</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>13.09034187081542</v>
+        <v>36.78459019850413</v>
       </c>
       <c r="J15" t="n">
-        <v>209.1406773255396</v>
+        <v>354.7410723404188</v>
       </c>
       <c r="K15" t="n">
-        <v>409.054449411462</v>
+        <v>239.7598060688937</v>
       </c>
       <c r="L15" t="n">
-        <v>162.0264904034096</v>
+        <v>162.0264904034095</v>
       </c>
       <c r="M15" t="n">
-        <v>192.2545357200932</v>
+        <v>192.2545357200931</v>
       </c>
       <c r="N15" t="n">
-        <v>199.707996561711</v>
+        <v>199.7079965617109</v>
       </c>
       <c r="O15" t="n">
-        <v>179.0466121240674</v>
+        <v>179.0466121240673</v>
       </c>
       <c r="P15" t="n">
-        <v>140.5273344248607</v>
+        <v>140.5273344248606</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.74499403971092</v>
+        <v>85.74499403971086</v>
       </c>
       <c r="R15" t="n">
-        <v>29.09691326270467</v>
+        <v>29.09691326270464</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>108.4491636560606</v>
       </c>
       <c r="K16" t="n">
-        <v>61.82042063979341</v>
+        <v>311.6008338862803</v>
       </c>
       <c r="L16" t="n">
-        <v>84.01763431891803</v>
+        <v>84.01763431891797</v>
       </c>
       <c r="M16" t="n">
-        <v>409.054449411462</v>
+        <v>409.0544494114617</v>
       </c>
       <c r="N16" t="n">
-        <v>409.054449411462</v>
+        <v>376.6043913089393</v>
       </c>
       <c r="O16" t="n">
-        <v>78.21617615871756</v>
+        <v>78.2161761587175</v>
       </c>
       <c r="P16" t="n">
-        <v>281.1289472113849</v>
+        <v>63.7985920674197</v>
       </c>
       <c r="Q16" t="n">
         <v>187.9491043365766</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J17" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K17" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
         <v>234.6383920255356</v>
@@ -35895,19 +35895,19 @@
         <v>266.2786873535734</v>
       </c>
       <c r="N17" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
         <v>254.0342106378739</v>
       </c>
       <c r="P17" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q17" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R17" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>39.38459507201445</v>
       </c>
       <c r="J18" t="n">
-        <v>198.1474649926227</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
         <v>178.4230816471201</v>
@@ -35974,7 +35974,7 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
-        <v>453.4520759799034</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
         <v>197.0138050378653</v>
@@ -35983,7 +35983,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960184</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.2163853105522</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K19" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>422.5059433537759</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M19" t="n">
-        <v>453.4520759799034</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N19" t="n">
-        <v>97.97849100196757</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799034</v>
+        <v>211.2184625003977</v>
       </c>
       <c r="P19" t="n">
-        <v>71.45566478902607</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q19" t="n">
         <v>193.2504645920423</v>
@@ -36126,16 +36126,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N20" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P20" t="n">
         <v>211.1492784199623</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J21" t="n">
-        <v>198.1474649926219</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
         <v>127.0390157285253</v>
@@ -36211,16 +36211,16 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>453.4520759799034</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P21" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36284,22 +36284,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>99.0437854319386</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N22" t="n">
-        <v>97.9784910019676</v>
+        <v>245.8539535860839</v>
       </c>
       <c r="O22" t="n">
-        <v>132.5096578052252</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P22" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.8868913226173</v>
+        <v>25.8868913226172</v>
       </c>
       <c r="J24" t="n">
         <v>94.80275941981945</v>
@@ -36524,10 +36524,10 @@
         <v>510.5342698864465</v>
       </c>
       <c r="M25" t="n">
-        <v>137.9637309792479</v>
+        <v>224.90954103376</v>
       </c>
       <c r="N25" t="n">
-        <v>222.9188172890298</v>
+        <v>135.9730072345175</v>
       </c>
       <c r="O25" t="n">
         <v>503.7763602056839</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25.8868913226173</v>
+        <v>25.88689132261718</v>
       </c>
       <c r="J27" t="n">
         <v>94.80275941981945</v>
@@ -36697,7 +36697,7 @@
         <v>133.1884048989774</v>
       </c>
       <c r="R27" t="n">
-        <v>52.17308575183939</v>
+        <v>52.17308575183938</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36761,13 +36761,13 @@
         <v>510.5342698864465</v>
       </c>
       <c r="M28" t="n">
-        <v>555.6763375073507</v>
+        <v>137.9637309792479</v>
       </c>
       <c r="N28" t="n">
-        <v>186.7237100570917</v>
+        <v>222.9188172890302</v>
       </c>
       <c r="O28" t="n">
-        <v>122.258860909519</v>
+        <v>503.7763602056839</v>
       </c>
       <c r="P28" t="n">
         <v>417.4000756354906</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25.88689132261718</v>
+        <v>25.8868913226173</v>
       </c>
       <c r="J30" t="n">
         <v>94.80275941981945</v>
@@ -36995,19 +36995,19 @@
         <v>347.802629044194</v>
       </c>
       <c r="L31" t="n">
-        <v>510.5342698864465</v>
+        <v>475.1468734478371</v>
       </c>
       <c r="M31" t="n">
-        <v>137.9637309792479</v>
+        <v>555.6763375073507</v>
       </c>
       <c r="N31" t="n">
         <v>538.0264646505581</v>
       </c>
       <c r="O31" t="n">
-        <v>503.7763602056839</v>
+        <v>122.258860909519</v>
       </c>
       <c r="P31" t="n">
-        <v>102.2924282739624</v>
+        <v>101.4847174806344</v>
       </c>
       <c r="Q31" t="n">
         <v>214.0410241487474</v>
@@ -37235,13 +37235,13 @@
         <v>510.5342698864465</v>
       </c>
       <c r="M34" t="n">
-        <v>555.6763375073507</v>
+        <v>224.90954103376</v>
       </c>
       <c r="N34" t="n">
         <v>135.9730072345175</v>
       </c>
       <c r="O34" t="n">
-        <v>173.0095637320932</v>
+        <v>503.7763602056839</v>
       </c>
       <c r="P34" t="n">
         <v>417.4000756354906</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>25.8868913226173</v>
+        <v>25.88689132261718</v>
       </c>
       <c r="J36" t="n">
-        <v>94.80275941981935</v>
+        <v>94.80275941981945</v>
       </c>
       <c r="K36" t="n">
         <v>174.8614592621509</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>130.479004105442</v>
+        <v>51.77019941026946</v>
       </c>
       <c r="K37" t="n">
-        <v>347.802629044194</v>
+        <v>162.5090606085305</v>
       </c>
       <c r="L37" t="n">
         <v>510.5342698864465</v>
@@ -37475,16 +37475,16 @@
         <v>555.6763375073507</v>
       </c>
       <c r="N37" t="n">
-        <v>186.7237100570912</v>
+        <v>538.0264646505581</v>
       </c>
       <c r="O37" t="n">
-        <v>122.258860909519</v>
+        <v>503.7763602056839</v>
       </c>
       <c r="P37" t="n">
-        <v>417.4000756354906</v>
+        <v>101.4847174806344</v>
       </c>
       <c r="Q37" t="n">
-        <v>214.0410241487474</v>
+        <v>61.138501544809</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25.8868913226173</v>
+        <v>25.88689132261718</v>
       </c>
       <c r="J39" t="n">
         <v>94.80275941981945</v>
@@ -37645,7 +37645,7 @@
         <v>133.1884048989774</v>
       </c>
       <c r="R39" t="n">
-        <v>52.17308575183939</v>
+        <v>52.17308575183938</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>130.479004105442</v>
+        <v>51.77019941026946</v>
       </c>
       <c r="K40" t="n">
-        <v>347.802629044194</v>
+        <v>98.02221579770709</v>
       </c>
       <c r="L40" t="n">
         <v>510.5342698864465</v>
       </c>
       <c r="M40" t="n">
-        <v>137.9637309792479</v>
+        <v>555.6763375073507</v>
       </c>
       <c r="N40" t="n">
-        <v>222.9188172890298</v>
+        <v>538.0264646505581</v>
       </c>
       <c r="O40" t="n">
         <v>503.7763602056839</v>
       </c>
       <c r="P40" t="n">
-        <v>417.4000756354906</v>
+        <v>165.9715622914578</v>
       </c>
       <c r="Q40" t="n">
-        <v>214.0410241487474</v>
+        <v>61.138501544809</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>25.8868913226173</v>
       </c>
       <c r="J42" t="n">
-        <v>94.80275941981935</v>
+        <v>94.80275941981945</v>
       </c>
       <c r="K42" t="n">
-        <v>174.8614592621509</v>
+        <v>174.8614592621508</v>
       </c>
       <c r="L42" t="n">
         <v>242.7262586341678</v>
@@ -37940,7 +37940,7 @@
         <v>51.77019941026946</v>
       </c>
       <c r="K43" t="n">
-        <v>98.02221579770709</v>
+        <v>162.5090606085305</v>
       </c>
       <c r="L43" t="n">
         <v>510.5342698864465</v>
@@ -37958,7 +37958,7 @@
         <v>101.4847174806344</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.6253463556314</v>
+        <v>61.138501544809</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.8868913226173</v>
+        <v>25.88689132261718</v>
       </c>
       <c r="J45" t="n">
         <v>94.80275941981945</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>130.479004105442</v>
+        <v>51.77019941026946</v>
       </c>
       <c r="K46" t="n">
         <v>347.802629044194</v>
       </c>
       <c r="L46" t="n">
-        <v>510.5342698864465</v>
+        <v>130.3434682792092</v>
       </c>
       <c r="M46" t="n">
         <v>555.6763375073507</v>
       </c>
       <c r="N46" t="n">
-        <v>135.9730072345175</v>
+        <v>538.0264646505581</v>
       </c>
       <c r="O46" t="n">
-        <v>173.0095637320937</v>
+        <v>503.7763602056839</v>
       </c>
       <c r="P46" t="n">
-        <v>417.4000756354906</v>
+        <v>143.4794280482695</v>
       </c>
       <c r="Q46" t="n">
         <v>214.0410241487474</v>
